--- a/DAM_Market Snapshot Dec 2025.xlsx
+++ b/DAM_Market Snapshot Dec 2025.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7706" uniqueCount="4278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8405" uniqueCount="4654">
   <si>
     <t>Market Snapshot</t>
   </si>
   <si>
-    <t>Date: 01-12-2025 to 11-12-2025</t>
+    <t>Date: 01-12-2025 to 12-12-2025</t>
   </si>
   <si>
     <t>Date</t>
@@ -12589,6 +12589,1113 @@
     <t>2599.83</t>
   </si>
   <si>
+    <t>12-12-2025</t>
+  </si>
+  <si>
+    <t>11788.60</t>
+  </si>
+  <si>
+    <t>29092.60</t>
+  </si>
+  <si>
+    <t>8007.00</t>
+  </si>
+  <si>
+    <t>2200.98</t>
+  </si>
+  <si>
+    <t>11770.00</t>
+  </si>
+  <si>
+    <t>29795.00</t>
+  </si>
+  <si>
+    <t>7795.40</t>
+  </si>
+  <si>
+    <t>2250.81</t>
+  </si>
+  <si>
+    <t>12204.30</t>
+  </si>
+  <si>
+    <t>30061.80</t>
+  </si>
+  <si>
+    <t>7980.30</t>
+  </si>
+  <si>
+    <t>2291.00</t>
+  </si>
+  <si>
+    <t>12665.90</t>
+  </si>
+  <si>
+    <t>30226.50</t>
+  </si>
+  <si>
+    <t>8182.89</t>
+  </si>
+  <si>
+    <t>12613.00</t>
+  </si>
+  <si>
+    <t>30661.50</t>
+  </si>
+  <si>
+    <t>8336.20</t>
+  </si>
+  <si>
+    <t>2497.49</t>
+  </si>
+  <si>
+    <t>12614.60</t>
+  </si>
+  <si>
+    <t>30871.90</t>
+  </si>
+  <si>
+    <t>8375.50</t>
+  </si>
+  <si>
+    <t>2417.00</t>
+  </si>
+  <si>
+    <t>12573.10</t>
+  </si>
+  <si>
+    <t>31405.30</t>
+  </si>
+  <si>
+    <t>8335.60</t>
+  </si>
+  <si>
+    <t>2416.29</t>
+  </si>
+  <si>
+    <t>12536.80</t>
+  </si>
+  <si>
+    <t>31793.20</t>
+  </si>
+  <si>
+    <t>8313.60</t>
+  </si>
+  <si>
+    <t>2313.71</t>
+  </si>
+  <si>
+    <t>12467.10</t>
+  </si>
+  <si>
+    <t>32115.80</t>
+  </si>
+  <si>
+    <t>8143.20</t>
+  </si>
+  <si>
+    <t>2290.09</t>
+  </si>
+  <si>
+    <t>12497.50</t>
+  </si>
+  <si>
+    <t>32236.00</t>
+  </si>
+  <si>
+    <t>8332.30</t>
+  </si>
+  <si>
+    <t>12610.20</t>
+  </si>
+  <si>
+    <t>32315.00</t>
+  </si>
+  <si>
+    <t>8471.69</t>
+  </si>
+  <si>
+    <t>2250.76</t>
+  </si>
+  <si>
+    <t>12732.50</t>
+  </si>
+  <si>
+    <t>32272.90</t>
+  </si>
+  <si>
+    <t>8570.99</t>
+  </si>
+  <si>
+    <t>12764.10</t>
+  </si>
+  <si>
+    <t>32054.10</t>
+  </si>
+  <si>
+    <t>8567.30</t>
+  </si>
+  <si>
+    <t>2270.89</t>
+  </si>
+  <si>
+    <t>12965.00</t>
+  </si>
+  <si>
+    <t>31999.00</t>
+  </si>
+  <si>
+    <t>8756.60</t>
+  </si>
+  <si>
+    <t>2313.05</t>
+  </si>
+  <si>
+    <t>13349.60</t>
+  </si>
+  <si>
+    <t>32052.50</t>
+  </si>
+  <si>
+    <t>9076.20</t>
+  </si>
+  <si>
+    <t>2416.73</t>
+  </si>
+  <si>
+    <t>13659.10</t>
+  </si>
+  <si>
+    <t>32041.70</t>
+  </si>
+  <si>
+    <t>9388.39</t>
+  </si>
+  <si>
+    <t>2500.03</t>
+  </si>
+  <si>
+    <t>13975.00</t>
+  </si>
+  <si>
+    <t>32139.30</t>
+  </si>
+  <si>
+    <t>9244.00</t>
+  </si>
+  <si>
+    <t>2510.36</t>
+  </si>
+  <si>
+    <t>14259.10</t>
+  </si>
+  <si>
+    <t>31084.50</t>
+  </si>
+  <si>
+    <t>2530.72</t>
+  </si>
+  <si>
+    <t>14433.70</t>
+  </si>
+  <si>
+    <t>30072.00</t>
+  </si>
+  <si>
+    <t>8911.40</t>
+  </si>
+  <si>
+    <t>2750.60</t>
+  </si>
+  <si>
+    <t>14574.20</t>
+  </si>
+  <si>
+    <t>29069.40</t>
+  </si>
+  <si>
+    <t>8834.10</t>
+  </si>
+  <si>
+    <t>2763.91</t>
+  </si>
+  <si>
+    <t>13535.60</t>
+  </si>
+  <si>
+    <t>28192.60</t>
+  </si>
+  <si>
+    <t>8268.70</t>
+  </si>
+  <si>
+    <t>12854.30</t>
+  </si>
+  <si>
+    <t>26500.60</t>
+  </si>
+  <si>
+    <t>7960.60</t>
+  </si>
+  <si>
+    <t>2763.71</t>
+  </si>
+  <si>
+    <t>12711.10</t>
+  </si>
+  <si>
+    <t>23814.70</t>
+  </si>
+  <si>
+    <t>7345.30</t>
+  </si>
+  <si>
+    <t>2938.24</t>
+  </si>
+  <si>
+    <t>13694.30</t>
+  </si>
+  <si>
+    <t>21964.60</t>
+  </si>
+  <si>
+    <t>8128.40</t>
+  </si>
+  <si>
+    <t>3044.20</t>
+  </si>
+  <si>
+    <t>14591.80</t>
+  </si>
+  <si>
+    <t>17893.30</t>
+  </si>
+  <si>
+    <t>8004.81</t>
+  </si>
+  <si>
+    <t>3660.03</t>
+  </si>
+  <si>
+    <t>17029.00</t>
+  </si>
+  <si>
+    <t>16475.60</t>
+  </si>
+  <si>
+    <t>9266.80</t>
+  </si>
+  <si>
+    <t>4082.91</t>
+  </si>
+  <si>
+    <t>17879.50</t>
+  </si>
+  <si>
+    <t>15402.10</t>
+  </si>
+  <si>
+    <t>9786.20</t>
+  </si>
+  <si>
+    <t>4398.91</t>
+  </si>
+  <si>
+    <t>20144.10</t>
+  </si>
+  <si>
+    <t>14688.40</t>
+  </si>
+  <si>
+    <t>11204.10</t>
+  </si>
+  <si>
+    <t>4699.54</t>
+  </si>
+  <si>
+    <t>21472.50</t>
+  </si>
+  <si>
+    <t>13955.60</t>
+  </si>
+  <si>
+    <t>11302.40</t>
+  </si>
+  <si>
+    <t>5499.36</t>
+  </si>
+  <si>
+    <t>22063.50</t>
+  </si>
+  <si>
+    <t>13885.00</t>
+  </si>
+  <si>
+    <t>11497.20</t>
+  </si>
+  <si>
+    <t>7200.05</t>
+  </si>
+  <si>
+    <t>22449.80</t>
+  </si>
+  <si>
+    <t>14148.40</t>
+  </si>
+  <si>
+    <t>11699.90</t>
+  </si>
+  <si>
+    <t>6699.62</t>
+  </si>
+  <si>
+    <t>22428.90</t>
+  </si>
+  <si>
+    <t>13784.70</t>
+  </si>
+  <si>
+    <t>11249.60</t>
+  </si>
+  <si>
+    <t>6600.05</t>
+  </si>
+  <si>
+    <t>20723.60</t>
+  </si>
+  <si>
+    <t>14214.40</t>
+  </si>
+  <si>
+    <t>10585.60</t>
+  </si>
+  <si>
+    <t>4799.18</t>
+  </si>
+  <si>
+    <t>20679.10</t>
+  </si>
+  <si>
+    <t>14605.00</t>
+  </si>
+  <si>
+    <t>10206.00</t>
+  </si>
+  <si>
+    <t>4650.18</t>
+  </si>
+  <si>
+    <t>20234.60</t>
+  </si>
+  <si>
+    <t>15358.00</t>
+  </si>
+  <si>
+    <t>9534.00</t>
+  </si>
+  <si>
+    <t>4421.50</t>
+  </si>
+  <si>
+    <t>19316.40</t>
+  </si>
+  <si>
+    <t>16065.40</t>
+  </si>
+  <si>
+    <t>8611.70</t>
+  </si>
+  <si>
+    <t>4000.29</t>
+  </si>
+  <si>
+    <t>18720.60</t>
+  </si>
+  <si>
+    <t>17711.60</t>
+  </si>
+  <si>
+    <t>8947.20</t>
+  </si>
+  <si>
+    <t>3470.24</t>
+  </si>
+  <si>
+    <t>18809.80</t>
+  </si>
+  <si>
+    <t>18145.50</t>
+  </si>
+  <si>
+    <t>9278.10</t>
+  </si>
+  <si>
+    <t>3294.21</t>
+  </si>
+  <si>
+    <t>18329.50</t>
+  </si>
+  <si>
+    <t>19481.00</t>
+  </si>
+  <si>
+    <t>3049.83</t>
+  </si>
+  <si>
+    <t>17316.30</t>
+  </si>
+  <si>
+    <t>19971.30</t>
+  </si>
+  <si>
+    <t>9362.00</t>
+  </si>
+  <si>
+    <t>2990.66</t>
+  </si>
+  <si>
+    <t>18084.00</t>
+  </si>
+  <si>
+    <t>23375.60</t>
+  </si>
+  <si>
+    <t>9331.10</t>
+  </si>
+  <si>
+    <t>2725.29</t>
+  </si>
+  <si>
+    <t>17809.00</t>
+  </si>
+  <si>
+    <t>24150.20</t>
+  </si>
+  <si>
+    <t>9348.70</t>
+  </si>
+  <si>
+    <t>2560.52</t>
+  </si>
+  <si>
+    <t>18773.30</t>
+  </si>
+  <si>
+    <t>26389.80</t>
+  </si>
+  <si>
+    <t>10889.19</t>
+  </si>
+  <si>
+    <t>17643.60</t>
+  </si>
+  <si>
+    <t>27567.20</t>
+  </si>
+  <si>
+    <t>10201.93</t>
+  </si>
+  <si>
+    <t>2999.64</t>
+  </si>
+  <si>
+    <t>17300.60</t>
+  </si>
+  <si>
+    <t>28072.40</t>
+  </si>
+  <si>
+    <t>10154.36</t>
+  </si>
+  <si>
+    <t>2866.34</t>
+  </si>
+  <si>
+    <t>16986.50</t>
+  </si>
+  <si>
+    <t>28622.40</t>
+  </si>
+  <si>
+    <t>9956.53</t>
+  </si>
+  <si>
+    <t>2801.35</t>
+  </si>
+  <si>
+    <t>17472.00</t>
+  </si>
+  <si>
+    <t>29747.00</t>
+  </si>
+  <si>
+    <t>10340.00</t>
+  </si>
+  <si>
+    <t>2946.80</t>
+  </si>
+  <si>
+    <t>17909.90</t>
+  </si>
+  <si>
+    <t>31488.60</t>
+  </si>
+  <si>
+    <t>10476.00</t>
+  </si>
+  <si>
+    <t>2980.61</t>
+  </si>
+  <si>
+    <t>15765.20</t>
+  </si>
+  <si>
+    <t>33008.90</t>
+  </si>
+  <si>
+    <t>10152.10</t>
+  </si>
+  <si>
+    <t>2460.18</t>
+  </si>
+  <si>
+    <t>15621.00</t>
+  </si>
+  <si>
+    <t>33232.00</t>
+  </si>
+  <si>
+    <t>10326.00</t>
+  </si>
+  <si>
+    <t>2460.08</t>
+  </si>
+  <si>
+    <t>15677.90</t>
+  </si>
+  <si>
+    <t>34057.80</t>
+  </si>
+  <si>
+    <t>10296.80</t>
+  </si>
+  <si>
+    <t>2370.10</t>
+  </si>
+  <si>
+    <t>16278.80</t>
+  </si>
+  <si>
+    <t>35078.80</t>
+  </si>
+  <si>
+    <t>10329.40</t>
+  </si>
+  <si>
+    <t>2410.15</t>
+  </si>
+  <si>
+    <t>15286.20</t>
+  </si>
+  <si>
+    <t>36638.40</t>
+  </si>
+  <si>
+    <t>10539.50</t>
+  </si>
+  <si>
+    <t>2220.08</t>
+  </si>
+  <si>
+    <t>14877.00</t>
+  </si>
+  <si>
+    <t>37420.50</t>
+  </si>
+  <si>
+    <t>10405.90</t>
+  </si>
+  <si>
+    <t>2173.88</t>
+  </si>
+  <si>
+    <t>15044.60</t>
+  </si>
+  <si>
+    <t>37385.30</t>
+  </si>
+  <si>
+    <t>10181.00</t>
+  </si>
+  <si>
+    <t>2250.54</t>
+  </si>
+  <si>
+    <t>14007.30</t>
+  </si>
+  <si>
+    <t>36890.10</t>
+  </si>
+  <si>
+    <t>10120.00</t>
+  </si>
+  <si>
+    <t>2217.65</t>
+  </si>
+  <si>
+    <t>16641.10</t>
+  </si>
+  <si>
+    <t>32792.80</t>
+  </si>
+  <si>
+    <t>9855.10</t>
+  </si>
+  <si>
+    <t>2320.07</t>
+  </si>
+  <si>
+    <t>16606.40</t>
+  </si>
+  <si>
+    <t>32569.10</t>
+  </si>
+  <si>
+    <t>10213.90</t>
+  </si>
+  <si>
+    <t>2250.66</t>
+  </si>
+  <si>
+    <t>16638.80</t>
+  </si>
+  <si>
+    <t>30676.80</t>
+  </si>
+  <si>
+    <t>9927.49</t>
+  </si>
+  <si>
+    <t>2300.74</t>
+  </si>
+  <si>
+    <t>17755.50</t>
+  </si>
+  <si>
+    <t>29581.20</t>
+  </si>
+  <si>
+    <t>9703.60</t>
+  </si>
+  <si>
+    <t>2610.91</t>
+  </si>
+  <si>
+    <t>17756.20</t>
+  </si>
+  <si>
+    <t>27726.00</t>
+  </si>
+  <si>
+    <t>9427.40</t>
+  </si>
+  <si>
+    <t>2754.11</t>
+  </si>
+  <si>
+    <t>18503.70</t>
+  </si>
+  <si>
+    <t>26237.30</t>
+  </si>
+  <si>
+    <t>9940.30</t>
+  </si>
+  <si>
+    <t>2915.47</t>
+  </si>
+  <si>
+    <t>19368.80</t>
+  </si>
+  <si>
+    <t>25331.70</t>
+  </si>
+  <si>
+    <t>10378.10</t>
+  </si>
+  <si>
+    <t>3008.53</t>
+  </si>
+  <si>
+    <t>20171.70</t>
+  </si>
+  <si>
+    <t>24544.50</t>
+  </si>
+  <si>
+    <t>11145.70</t>
+  </si>
+  <si>
+    <t>20702.40</t>
+  </si>
+  <si>
+    <t>22787.70</t>
+  </si>
+  <si>
+    <t>9867.40</t>
+  </si>
+  <si>
+    <t>3033.09</t>
+  </si>
+  <si>
+    <t>22051.90</t>
+  </si>
+  <si>
+    <t>20550.60</t>
+  </si>
+  <si>
+    <t>10193.80</t>
+  </si>
+  <si>
+    <t>3473.12</t>
+  </si>
+  <si>
+    <t>21682.90</t>
+  </si>
+  <si>
+    <t>18735.00</t>
+  </si>
+  <si>
+    <t>10819.40</t>
+  </si>
+  <si>
+    <t>4147.05</t>
+  </si>
+  <si>
+    <t>21129.00</t>
+  </si>
+  <si>
+    <t>16842.10</t>
+  </si>
+  <si>
+    <t>11167.90</t>
+  </si>
+  <si>
+    <t>4530.24</t>
+  </si>
+  <si>
+    <t>19090.80</t>
+  </si>
+  <si>
+    <t>13199.40</t>
+  </si>
+  <si>
+    <t>9004.00</t>
+  </si>
+  <si>
+    <t>4530.81</t>
+  </si>
+  <si>
+    <t>19077.70</t>
+  </si>
+  <si>
+    <t>10063.40</t>
+  </si>
+  <si>
+    <t>7733.70</t>
+  </si>
+  <si>
+    <t>5450.70</t>
+  </si>
+  <si>
+    <t>18573.10</t>
+  </si>
+  <si>
+    <t>7803.20</t>
+  </si>
+  <si>
+    <t>5871.50</t>
+  </si>
+  <si>
+    <t>23427.30</t>
+  </si>
+  <si>
+    <t>7000.60</t>
+  </si>
+  <si>
+    <t>5068.89</t>
+  </si>
+  <si>
+    <t>25696.20</t>
+  </si>
+  <si>
+    <t>7026.10</t>
+  </si>
+  <si>
+    <t>5094.40</t>
+  </si>
+  <si>
+    <t>25632.90</t>
+  </si>
+  <si>
+    <t>7004.40</t>
+  </si>
+  <si>
+    <t>5072.70</t>
+  </si>
+  <si>
+    <t>25011.30</t>
+  </si>
+  <si>
+    <t>7296.60</t>
+  </si>
+  <si>
+    <t>5364.90</t>
+  </si>
+  <si>
+    <t>20585.00</t>
+  </si>
+  <si>
+    <t>7396.60</t>
+  </si>
+  <si>
+    <t>5464.90</t>
+  </si>
+  <si>
+    <t>13628.30</t>
+  </si>
+  <si>
+    <t>9158.50</t>
+  </si>
+  <si>
+    <t>7033.90</t>
+  </si>
+  <si>
+    <t>5264.95</t>
+  </si>
+  <si>
+    <t>14374.80</t>
+  </si>
+  <si>
+    <t>11110.50</t>
+  </si>
+  <si>
+    <t>8323.00</t>
+  </si>
+  <si>
+    <t>14484.50</t>
+  </si>
+  <si>
+    <t>13247.90</t>
+  </si>
+  <si>
+    <t>8637.70</t>
+  </si>
+  <si>
+    <t>4638.04</t>
+  </si>
+  <si>
+    <t>13652.70</t>
+  </si>
+  <si>
+    <t>13975.60</t>
+  </si>
+  <si>
+    <t>8106.30</t>
+  </si>
+  <si>
+    <t>4422.41</t>
+  </si>
+  <si>
+    <t>13316.50</t>
+  </si>
+  <si>
+    <t>15168.30</t>
+  </si>
+  <si>
+    <t>7987.20</t>
+  </si>
+  <si>
+    <t>3999.75</t>
+  </si>
+  <si>
+    <t>13200.90</t>
+  </si>
+  <si>
+    <t>15846.80</t>
+  </si>
+  <si>
+    <t>7765.89</t>
+  </si>
+  <si>
+    <t>3851.94</t>
+  </si>
+  <si>
+    <t>12934.80</t>
+  </si>
+  <si>
+    <t>16814.30</t>
+  </si>
+  <si>
+    <t>7590.90</t>
+  </si>
+  <si>
+    <t>3749.54</t>
+  </si>
+  <si>
+    <t>12618.80</t>
+  </si>
+  <si>
+    <t>17406.80</t>
+  </si>
+  <si>
+    <t>7531.40</t>
+  </si>
+  <si>
+    <t>3700.75</t>
+  </si>
+  <si>
+    <t>11482.50</t>
+  </si>
+  <si>
+    <t>18452.50</t>
+  </si>
+  <si>
+    <t>6451.90</t>
+  </si>
+  <si>
+    <t>3499.11</t>
+  </si>
+  <si>
+    <t>11447.70</t>
+  </si>
+  <si>
+    <t>19050.80</t>
+  </si>
+  <si>
+    <t>6368.90</t>
+  </si>
+  <si>
+    <t>3400.48</t>
+  </si>
+  <si>
+    <t>11563.00</t>
+  </si>
+  <si>
+    <t>19537.90</t>
+  </si>
+  <si>
+    <t>6421.30</t>
+  </si>
+  <si>
+    <t>3246.81</t>
+  </si>
+  <si>
+    <t>11692.70</t>
+  </si>
+  <si>
+    <t>20236.60</t>
+  </si>
+  <si>
+    <t>6424.40</t>
+  </si>
+  <si>
+    <t>3040.92</t>
+  </si>
+  <si>
+    <t>12118.20</t>
+  </si>
+  <si>
+    <t>22007.90</t>
+  </si>
+  <si>
+    <t>6256.30</t>
+  </si>
+  <si>
+    <t>2946.10</t>
+  </si>
+  <si>
+    <t>11788.40</t>
+  </si>
+  <si>
+    <t>23175.70</t>
+  </si>
+  <si>
+    <t>6034.60</t>
+  </si>
+  <si>
+    <t>2915.58</t>
+  </si>
+  <si>
+    <t>11611.00</t>
+  </si>
+  <si>
+    <t>23988.70</t>
+  </si>
+  <si>
+    <t>6153.47</t>
+  </si>
+  <si>
+    <t>2850.96</t>
+  </si>
+  <si>
+    <t>11426.10</t>
+  </si>
+  <si>
+    <t>24760.80</t>
+  </si>
+  <si>
+    <t>6000.50</t>
+  </si>
+  <si>
+    <t>2752.47</t>
+  </si>
+  <si>
+    <t>11050.60</t>
+  </si>
+  <si>
+    <t>26402.50</t>
+  </si>
+  <si>
+    <t>6515.00</t>
+  </si>
+  <si>
+    <t>2560.66</t>
+  </si>
+  <si>
+    <t>11062.70</t>
+  </si>
+  <si>
+    <t>26948.90</t>
+  </si>
+  <si>
+    <t>6426.70</t>
+  </si>
+  <si>
+    <t>2599.16</t>
+  </si>
+  <si>
+    <t>10891.30</t>
+  </si>
+  <si>
+    <t>27413.00</t>
+  </si>
+  <si>
+    <t>2449.93</t>
+  </si>
+  <si>
+    <t>10726.10</t>
+  </si>
+  <si>
+    <t>27859.60</t>
+  </si>
+  <si>
+    <t>6526.70</t>
+  </si>
+  <si>
+    <t>2313.55</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -12845,6 +13952,27 @@
   </si>
   <si>
     <t>3747.03</t>
+  </si>
+  <si>
+    <t>384937.23</t>
+  </si>
+  <si>
+    <t>562617.88</t>
+  </si>
+  <si>
+    <t>208933.31</t>
+  </si>
+  <si>
+    <t>16039.05</t>
+  </si>
+  <si>
+    <t>23442.41</t>
+  </si>
+  <si>
+    <t>8705.55</t>
+  </si>
+  <si>
+    <t>3645.05</t>
   </si>
 </sst>
 </file>
@@ -13293,7 +14421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1106"/>
+  <dimension ref="A1:Z1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -40849,7 +41977,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="1060" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1060" s="4" t="s">
         <v>3818</v>
       </c>
@@ -40901,1006 +42029,3591 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1062" s="3" t="s">
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1062" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1062" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1062" s="4" t="s">
+        <v>4193</v>
+      </c>
+      <c r="E1062" s="4" t="s">
+        <v>4194</v>
+      </c>
+      <c r="F1062" s="4" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G1062" s="4" t="s">
+        <v>4195</v>
+      </c>
+      <c r="H1062" s="4" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1063" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1063" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1063" s="4" t="s">
+        <v>4197</v>
+      </c>
+      <c r="E1063" s="4" t="s">
+        <v>4198</v>
+      </c>
+      <c r="F1063" s="4" t="s">
+        <v>4199</v>
+      </c>
+      <c r="G1063" s="4" t="s">
+        <v>4199</v>
+      </c>
+      <c r="H1063" s="4" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1064" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1064" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1064" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>4201</v>
+      </c>
+      <c r="E1064" s="4" t="s">
+        <v>4202</v>
+      </c>
+      <c r="F1064" s="4" t="s">
+        <v>4203</v>
+      </c>
+      <c r="G1064" s="4" t="s">
+        <v>4203</v>
+      </c>
+      <c r="H1064" s="4" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1065" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1065" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1065" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1065" s="4" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E1065" s="4" t="s">
+        <v>4206</v>
+      </c>
+      <c r="F1065" s="4" t="s">
+        <v>4207</v>
+      </c>
+      <c r="G1065" s="4" t="s">
+        <v>4207</v>
+      </c>
+      <c r="H1065" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1066" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1066" s="4">
         <v>2</v>
       </c>
-      <c r="B1062" s="3" t="s">
+      <c r="C1066" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1066" s="4" t="s">
+        <v>4208</v>
+      </c>
+      <c r="E1066" s="4" t="s">
+        <v>4209</v>
+      </c>
+      <c r="F1066" s="4" t="s">
+        <v>4210</v>
+      </c>
+      <c r="G1066" s="4" t="s">
+        <v>4210</v>
+      </c>
+      <c r="H1066" s="4" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1067" s="4" t="s">
         <v>4192</v>
       </c>
-      <c r="C1062" s="3" t="s">
-        <v>4193</v>
-      </c>
-      <c r="D1062" s="3" t="s">
-        <v>4194</v>
-      </c>
-      <c r="E1062" s="3" t="s">
-        <v>4195</v>
-      </c>
-      <c r="F1062" s="3" t="s">
-        <v>4196</v>
-      </c>
-      <c r="G1062" s="3" t="s">
+      <c r="B1067" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1067" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1067" s="4" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E1067" s="4" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F1067" s="4" t="s">
+        <v>4214</v>
+      </c>
+      <c r="G1067" s="4" t="s">
+        <v>4214</v>
+      </c>
+      <c r="H1067" s="4" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1068" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1068" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E1068" s="4" t="s">
+        <v>4217</v>
+      </c>
+      <c r="F1068" s="4" t="s">
+        <v>4218</v>
+      </c>
+      <c r="G1068" s="4" t="s">
+        <v>4218</v>
+      </c>
+      <c r="H1068" s="4" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1069" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1069" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1069" s="4" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E1069" s="4" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F1069" s="4" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G1069" s="4" t="s">
+        <v>4222</v>
+      </c>
+      <c r="H1069" s="4" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1070" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1070" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>4224</v>
+      </c>
+      <c r="E1070" s="4" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F1070" s="4" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G1070" s="4" t="s">
+        <v>4226</v>
+      </c>
+      <c r="H1070" s="4" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1071" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1071" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1071" s="4" t="s">
+        <v>4228</v>
+      </c>
+      <c r="E1071" s="4" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F1071" s="4" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G1071" s="4" t="s">
+        <v>4230</v>
+      </c>
+      <c r="H1071" s="4" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1072" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1072" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E1072" s="4" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F1072" s="4" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G1072" s="4" t="s">
+        <v>4233</v>
+      </c>
+      <c r="H1072" s="4" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1073" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1073" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1073" s="4" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E1073" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F1073" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="G1073" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H1073" s="4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1074" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1074" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1074" s="4" t="s">
+        <v>4238</v>
+      </c>
+      <c r="E1074" s="4" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F1074" s="4" t="s">
+        <v>4240</v>
+      </c>
+      <c r="G1074" s="4" t="s">
+        <v>4240</v>
+      </c>
+      <c r="H1074" s="4" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1075" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1075" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1075" s="4" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E1075" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F1075" s="4" t="s">
+        <v>4244</v>
+      </c>
+      <c r="G1075" s="4" t="s">
+        <v>4244</v>
+      </c>
+      <c r="H1075" s="4" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1076" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1076" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1076" s="4" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E1076" s="4" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F1076" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G1076" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="H1076" s="4" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1077" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1077" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1077" s="4" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E1077" s="4" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F1077" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1077" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="H1077" s="4" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1078" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1078" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1078" s="4" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E1078" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F1078" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="G1078" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="H1078" s="4" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1079" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1079" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E1079" s="4" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F1079" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G1079" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1079" s="4" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1080" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1080" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E1080" s="4" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F1080" s="4" t="s">
+        <v>4263</v>
+      </c>
+      <c r="G1080" s="4" t="s">
+        <v>4263</v>
+      </c>
+      <c r="H1080" s="4" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1081" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1081" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E1081" s="4" t="s">
+        <v>4266</v>
+      </c>
+      <c r="F1081" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="G1081" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="H1081" s="4" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1082" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1082" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1082" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E1082" s="4" t="s">
+        <v>4270</v>
+      </c>
+      <c r="F1082" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="G1082" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="H1082" s="4" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1083" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1083" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E1083" s="4" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F1083" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="G1083" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="H1083" s="4" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1084" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1084" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E1084" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F1084" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="G1084" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="H1084" s="4" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1085" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1085" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E1085" s="4" t="s">
+        <v>4281</v>
+      </c>
+      <c r="F1085" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="G1085" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="H1085" s="4" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1086" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1086" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1086" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E1086" s="4" t="s">
+        <v>4285</v>
+      </c>
+      <c r="F1086" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G1086" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="H1086" s="4" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1087" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1087" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1087" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E1087" s="4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F1087" s="4" t="s">
+        <v>4290</v>
+      </c>
+      <c r="G1087" s="4" t="s">
+        <v>4290</v>
+      </c>
+      <c r="H1087" s="4" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1088" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1088" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E1088" s="4" t="s">
+        <v>4293</v>
+      </c>
+      <c r="F1088" s="4" t="s">
+        <v>4294</v>
+      </c>
+      <c r="G1088" s="4" t="s">
+        <v>4294</v>
+      </c>
+      <c r="H1088" s="4" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1089" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1089" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1089" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1089" s="4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E1089" s="4" t="s">
+        <v>4297</v>
+      </c>
+      <c r="F1089" s="4" t="s">
+        <v>4298</v>
+      </c>
+      <c r="G1089" s="4" t="s">
+        <v>4298</v>
+      </c>
+      <c r="H1089" s="4" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1090" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1090" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1090" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1090" s="4" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E1090" s="4" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1090" s="4" t="s">
+        <v>4302</v>
+      </c>
+      <c r="G1090" s="4" t="s">
+        <v>4302</v>
+      </c>
+      <c r="H1090" s="4" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1091" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1091" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1091" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1091" s="4" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E1091" s="4" t="s">
+        <v>4305</v>
+      </c>
+      <c r="F1091" s="4" t="s">
+        <v>4306</v>
+      </c>
+      <c r="G1091" s="4" t="s">
+        <v>4306</v>
+      </c>
+      <c r="H1091" s="4" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1092" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1092" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1092" s="4" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E1092" s="4" t="s">
+        <v>4309</v>
+      </c>
+      <c r="F1092" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G1092" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="H1092" s="4" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1093" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1093" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1093" s="4" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E1093" s="4" t="s">
+        <v>4313</v>
+      </c>
+      <c r="F1093" s="4" t="s">
+        <v>4314</v>
+      </c>
+      <c r="G1093" s="4" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H1093" s="4" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1094" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1094" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1063" s="4" t="s">
+      <c r="C1094" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1094" s="4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E1094" s="4" t="s">
+        <v>4317</v>
+      </c>
+      <c r="F1094" s="4" t="s">
+        <v>4318</v>
+      </c>
+      <c r="G1094" s="4" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H1094" s="4" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1095" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1095" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1095" s="4" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E1095" s="4" t="s">
+        <v>4321</v>
+      </c>
+      <c r="F1095" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="G1095" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="H1095" s="4" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1096" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1096" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1096" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E1096" s="4" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F1096" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="G1096" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="H1096" s="4" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1097" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1097" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1097" s="4" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E1097" s="4" t="s">
+        <v>4329</v>
+      </c>
+      <c r="F1097" s="4" t="s">
+        <v>4330</v>
+      </c>
+      <c r="G1097" s="4" t="s">
+        <v>4330</v>
+      </c>
+      <c r="H1097" s="4" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1098" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1098" s="4">
         <v>10</v>
       </c>
-      <c r="B1063" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1063" s="4" t="s">
-        <v>4198</v>
-      </c>
-      <c r="D1063" s="4" t="s">
-        <v>4199</v>
-      </c>
-      <c r="E1063" s="4" t="s">
-        <v>4200</v>
-      </c>
-      <c r="F1063" s="4" t="s">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1064" s="4" t="s">
+      <c r="C1098" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1098" s="4" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E1098" s="4" t="s">
+        <v>4333</v>
+      </c>
+      <c r="F1098" s="4" t="s">
+        <v>4334</v>
+      </c>
+      <c r="G1098" s="4" t="s">
+        <v>4334</v>
+      </c>
+      <c r="H1098" s="4" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1099" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1099" s="4">
         <v>10</v>
       </c>
-      <c r="B1064" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1064" s="4" t="s">
+      <c r="C1099" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1099" s="4" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E1099" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F1099" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="G1099" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="H1099" s="4" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1100" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1100" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E1100" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="F1100" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="G1100" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="H1100" s="4" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1101" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1101" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>4343</v>
+      </c>
+      <c r="E1101" s="4" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F1101" s="4" t="s">
+        <v>4345</v>
+      </c>
+      <c r="G1101" s="4" t="s">
+        <v>4345</v>
+      </c>
+      <c r="H1101" s="4" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1102" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1102" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E1102" s="4" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F1102" s="4" t="s">
+        <v>4349</v>
+      </c>
+      <c r="G1102" s="4" t="s">
+        <v>4349</v>
+      </c>
+      <c r="H1102" s="4" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1103" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1103" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E1103" s="4" t="s">
+        <v>4352</v>
+      </c>
+      <c r="F1103" s="4" t="s">
+        <v>4353</v>
+      </c>
+      <c r="G1103" s="4" t="s">
+        <v>4353</v>
+      </c>
+      <c r="H1103" s="4" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1104" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1104" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E1104" s="4" t="s">
+        <v>4356</v>
+      </c>
+      <c r="F1104" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="G1104" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="H1104" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1105" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1105" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E1105" s="4" t="s">
+        <v>4359</v>
+      </c>
+      <c r="F1105" s="4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="G1105" s="4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="H1105" s="4" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1106" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1106" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E1106" s="4" t="s">
+        <v>4363</v>
+      </c>
+      <c r="F1106" s="4" t="s">
+        <v>4364</v>
+      </c>
+      <c r="G1106" s="4" t="s">
+        <v>4364</v>
+      </c>
+      <c r="H1106" s="4" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1107" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1107" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E1107" s="4" t="s">
+        <v>4367</v>
+      </c>
+      <c r="F1107" s="4" t="s">
+        <v>4368</v>
+      </c>
+      <c r="G1107" s="4" t="s">
+        <v>4368</v>
+      </c>
+      <c r="H1107" s="4" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1108" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1108" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E1108" s="4" t="s">
+        <v>4371</v>
+      </c>
+      <c r="F1108" s="4" t="s">
+        <v>4372</v>
+      </c>
+      <c r="G1108" s="4" t="s">
+        <v>4372</v>
+      </c>
+      <c r="H1108" s="4" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1109" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1109" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E1109" s="4" t="s">
+        <v>4375</v>
+      </c>
+      <c r="F1109" s="4" t="s">
+        <v>4376</v>
+      </c>
+      <c r="G1109" s="4" t="s">
+        <v>4376</v>
+      </c>
+      <c r="H1109" s="4" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1110" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1110" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E1110" s="4" t="s">
+        <v>4379</v>
+      </c>
+      <c r="F1110" s="4" t="s">
+        <v>4380</v>
+      </c>
+      <c r="G1110" s="4" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H1110" s="4" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1111" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1111" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E1111" s="4" t="s">
+        <v>4383</v>
+      </c>
+      <c r="F1111" s="4" t="s">
+        <v>4384</v>
+      </c>
+      <c r="G1111" s="4" t="s">
+        <v>4384</v>
+      </c>
+      <c r="H1111" s="4" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1112" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1112" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E1112" s="4" t="s">
+        <v>4387</v>
+      </c>
+      <c r="F1112" s="4" t="s">
+        <v>4388</v>
+      </c>
+      <c r="G1112" s="4" t="s">
+        <v>4388</v>
+      </c>
+      <c r="H1112" s="4" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1113" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1113" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E1113" s="4" t="s">
+        <v>4391</v>
+      </c>
+      <c r="F1113" s="4" t="s">
+        <v>4392</v>
+      </c>
+      <c r="G1113" s="4" t="s">
+        <v>4392</v>
+      </c>
+      <c r="H1113" s="4" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1114" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1114" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E1114" s="4" t="s">
+        <v>4395</v>
+      </c>
+      <c r="F1114" s="4" t="s">
+        <v>4396</v>
+      </c>
+      <c r="G1114" s="4" t="s">
+        <v>4396</v>
+      </c>
+      <c r="H1114" s="4" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1115" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1115" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E1115" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="F1115" s="4" t="s">
+        <v>4400</v>
+      </c>
+      <c r="G1115" s="4" t="s">
+        <v>4400</v>
+      </c>
+      <c r="H1115" s="4" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1116" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1116" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E1116" s="4" t="s">
+        <v>4403</v>
+      </c>
+      <c r="F1116" s="4" t="s">
+        <v>4404</v>
+      </c>
+      <c r="G1116" s="4" t="s">
+        <v>4404</v>
+      </c>
+      <c r="H1116" s="4" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1117" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1117" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E1117" s="4" t="s">
+        <v>4407</v>
+      </c>
+      <c r="F1117" s="4" t="s">
+        <v>4408</v>
+      </c>
+      <c r="G1117" s="4" t="s">
+        <v>4408</v>
+      </c>
+      <c r="H1117" s="4" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1118" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1118" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E1118" s="4" t="s">
+        <v>4411</v>
+      </c>
+      <c r="F1118" s="4" t="s">
+        <v>4412</v>
+      </c>
+      <c r="G1118" s="4" t="s">
+        <v>4412</v>
+      </c>
+      <c r="H1118" s="4" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1119" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1119" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>4414</v>
+      </c>
+      <c r="E1119" s="4" t="s">
+        <v>4415</v>
+      </c>
+      <c r="F1119" s="4" t="s">
+        <v>4416</v>
+      </c>
+      <c r="G1119" s="4" t="s">
+        <v>4416</v>
+      </c>
+      <c r="H1119" s="4" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1120" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1120" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E1120" s="4" t="s">
+        <v>4419</v>
+      </c>
+      <c r="F1120" s="4" t="s">
+        <v>4420</v>
+      </c>
+      <c r="G1120" s="4" t="s">
+        <v>4420</v>
+      </c>
+      <c r="H1120" s="4" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1121" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1121" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E1121" s="4" t="s">
+        <v>4423</v>
+      </c>
+      <c r="F1121" s="4" t="s">
+        <v>4424</v>
+      </c>
+      <c r="G1121" s="4" t="s">
+        <v>4424</v>
+      </c>
+      <c r="H1121" s="4" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1122" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1122" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>4426</v>
+      </c>
+      <c r="E1122" s="4" t="s">
+        <v>4427</v>
+      </c>
+      <c r="F1122" s="4" t="s">
+        <v>4428</v>
+      </c>
+      <c r="G1122" s="4" t="s">
+        <v>4428</v>
+      </c>
+      <c r="H1122" s="4" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1123" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1123" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E1123" s="4" t="s">
+        <v>4431</v>
+      </c>
+      <c r="F1123" s="4" t="s">
+        <v>4432</v>
+      </c>
+      <c r="G1123" s="4" t="s">
+        <v>4432</v>
+      </c>
+      <c r="H1123" s="4" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1124" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1124" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E1124" s="4" t="s">
+        <v>4435</v>
+      </c>
+      <c r="F1124" s="4" t="s">
+        <v>4436</v>
+      </c>
+      <c r="G1124" s="4" t="s">
+        <v>4436</v>
+      </c>
+      <c r="H1124" s="4" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1125" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1125" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>4438</v>
+      </c>
+      <c r="E1125" s="4" t="s">
+        <v>4439</v>
+      </c>
+      <c r="F1125" s="4" t="s">
+        <v>4440</v>
+      </c>
+      <c r="G1125" s="4" t="s">
+        <v>4440</v>
+      </c>
+      <c r="H1125" s="4" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1126" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1126" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>4441</v>
+      </c>
+      <c r="E1126" s="4" t="s">
+        <v>4442</v>
+      </c>
+      <c r="F1126" s="4" t="s">
+        <v>4443</v>
+      </c>
+      <c r="G1126" s="4" t="s">
+        <v>4443</v>
+      </c>
+      <c r="H1126" s="4" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1127" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1127" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>4445</v>
+      </c>
+      <c r="E1127" s="4" t="s">
+        <v>4446</v>
+      </c>
+      <c r="F1127" s="4" t="s">
+        <v>4447</v>
+      </c>
+      <c r="G1127" s="4" t="s">
+        <v>4447</v>
+      </c>
+      <c r="H1127" s="4" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1128" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1128" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E1128" s="4" t="s">
+        <v>4450</v>
+      </c>
+      <c r="F1128" s="4" t="s">
+        <v>4451</v>
+      </c>
+      <c r="G1128" s="4" t="s">
+        <v>4451</v>
+      </c>
+      <c r="H1128" s="4" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1129" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1129" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>4453</v>
+      </c>
+      <c r="E1129" s="4" t="s">
+        <v>4454</v>
+      </c>
+      <c r="F1129" s="4" t="s">
+        <v>4455</v>
+      </c>
+      <c r="G1129" s="4" t="s">
+        <v>4455</v>
+      </c>
+      <c r="H1129" s="4" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1130" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>4457</v>
+      </c>
+      <c r="E1130" s="4" t="s">
+        <v>4458</v>
+      </c>
+      <c r="F1130" s="4" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G1130" s="4" t="s">
+        <v>4459</v>
+      </c>
+      <c r="H1130" s="4" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1131" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1131" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E1131" s="4" t="s">
+        <v>4462</v>
+      </c>
+      <c r="F1131" s="4" t="s">
+        <v>4463</v>
+      </c>
+      <c r="G1131" s="4" t="s">
+        <v>4463</v>
+      </c>
+      <c r="H1131" s="4" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1132" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E1132" s="4" t="s">
+        <v>4466</v>
+      </c>
+      <c r="F1132" s="4" t="s">
+        <v>4467</v>
+      </c>
+      <c r="G1132" s="4" t="s">
+        <v>4467</v>
+      </c>
+      <c r="H1132" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1133" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E1133" s="4" t="s">
+        <v>4469</v>
+      </c>
+      <c r="F1133" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="G1133" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="H1133" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1134" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E1134" s="4" t="s">
+        <v>4472</v>
+      </c>
+      <c r="F1134" s="4" t="s">
+        <v>4473</v>
+      </c>
+      <c r="G1134" s="4" t="s">
+        <v>4473</v>
+      </c>
+      <c r="H1134" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1135" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>4474</v>
+      </c>
+      <c r="E1135" s="4" t="s">
+        <v>4475</v>
+      </c>
+      <c r="F1135" s="4" t="s">
+        <v>4476</v>
+      </c>
+      <c r="G1135" s="4" t="s">
+        <v>4476</v>
+      </c>
+      <c r="H1135" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1136" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E1136" s="4" t="s">
+        <v>4478</v>
+      </c>
+      <c r="F1136" s="4" t="s">
+        <v>4479</v>
+      </c>
+      <c r="G1136" s="4" t="s">
+        <v>4479</v>
+      </c>
+      <c r="H1136" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1137" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>4480</v>
+      </c>
+      <c r="E1137" s="4" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F1137" s="4" t="s">
+        <v>4482</v>
+      </c>
+      <c r="G1137" s="4" t="s">
+        <v>4482</v>
+      </c>
+      <c r="H1137" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1138" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E1138" s="4" t="s">
+        <v>4484</v>
+      </c>
+      <c r="F1138" s="4" t="s">
+        <v>4485</v>
+      </c>
+      <c r="G1138" s="4" t="s">
+        <v>4485</v>
+      </c>
+      <c r="H1138" s="4" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1139" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E1139" s="4" t="s">
+        <v>4488</v>
+      </c>
+      <c r="F1139" s="4" t="s">
+        <v>4489</v>
+      </c>
+      <c r="G1139" s="4" t="s">
+        <v>4489</v>
+      </c>
+      <c r="H1139" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1140" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E1140" s="4" t="s">
+        <v>4491</v>
+      </c>
+      <c r="F1140" s="4" t="s">
+        <v>4492</v>
+      </c>
+      <c r="G1140" s="4" t="s">
+        <v>4492</v>
+      </c>
+      <c r="H1140" s="4" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1141" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>4494</v>
+      </c>
+      <c r="E1141" s="4" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F1141" s="4" t="s">
+        <v>4496</v>
+      </c>
+      <c r="G1141" s="4" t="s">
+        <v>4496</v>
+      </c>
+      <c r="H1141" s="4" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1142" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>4498</v>
+      </c>
+      <c r="E1142" s="4" t="s">
+        <v>4499</v>
+      </c>
+      <c r="F1142" s="4" t="s">
+        <v>4500</v>
+      </c>
+      <c r="G1142" s="4" t="s">
+        <v>4500</v>
+      </c>
+      <c r="H1142" s="4" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1143" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>4502</v>
+      </c>
+      <c r="E1143" s="4" t="s">
+        <v>4503</v>
+      </c>
+      <c r="F1143" s="4" t="s">
+        <v>4504</v>
+      </c>
+      <c r="G1143" s="4" t="s">
+        <v>4504</v>
+      </c>
+      <c r="H1143" s="4" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1144" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>4506</v>
+      </c>
+      <c r="E1144" s="4" t="s">
+        <v>4507</v>
+      </c>
+      <c r="F1144" s="4" t="s">
+        <v>4508</v>
+      </c>
+      <c r="G1144" s="4" t="s">
+        <v>4508</v>
+      </c>
+      <c r="H1144" s="4" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1145" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>4510</v>
+      </c>
+      <c r="E1145" s="4" t="s">
+        <v>4511</v>
+      </c>
+      <c r="F1145" s="4" t="s">
+        <v>4512</v>
+      </c>
+      <c r="G1145" s="4" t="s">
+        <v>4512</v>
+      </c>
+      <c r="H1145" s="4" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1146" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>4514</v>
+      </c>
+      <c r="E1146" s="4" t="s">
+        <v>4515</v>
+      </c>
+      <c r="F1146" s="4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="G1146" s="4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="H1146" s="4" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1147" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>4518</v>
+      </c>
+      <c r="E1147" s="4" t="s">
+        <v>4519</v>
+      </c>
+      <c r="F1147" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G1147" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="H1147" s="4" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1148" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>4522</v>
+      </c>
+      <c r="E1148" s="4" t="s">
+        <v>4523</v>
+      </c>
+      <c r="F1148" s="4" t="s">
+        <v>4524</v>
+      </c>
+      <c r="G1148" s="4" t="s">
+        <v>4524</v>
+      </c>
+      <c r="H1148" s="4" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1149" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>4526</v>
+      </c>
+      <c r="E1149" s="4" t="s">
+        <v>4527</v>
+      </c>
+      <c r="F1149" s="4" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G1149" s="4" t="s">
+        <v>4528</v>
+      </c>
+      <c r="H1149" s="4" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1150" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>4530</v>
+      </c>
+      <c r="E1150" s="4" t="s">
+        <v>4531</v>
+      </c>
+      <c r="F1150" s="4" t="s">
+        <v>4532</v>
+      </c>
+      <c r="G1150" s="4" t="s">
+        <v>4532</v>
+      </c>
+      <c r="H1150" s="4" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1151" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1151" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>4534</v>
+      </c>
+      <c r="E1151" s="4" t="s">
+        <v>4535</v>
+      </c>
+      <c r="F1151" s="4" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G1151" s="4" t="s">
+        <v>4536</v>
+      </c>
+      <c r="H1151" s="4" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1152" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1152" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>4538</v>
+      </c>
+      <c r="E1152" s="4" t="s">
+        <v>4539</v>
+      </c>
+      <c r="F1152" s="4" t="s">
+        <v>4540</v>
+      </c>
+      <c r="G1152" s="4" t="s">
+        <v>4540</v>
+      </c>
+      <c r="H1152" s="4" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1153" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1153" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>4542</v>
+      </c>
+      <c r="E1153" s="4" t="s">
+        <v>4543</v>
+      </c>
+      <c r="F1153" s="4" t="s">
+        <v>4544</v>
+      </c>
+      <c r="G1153" s="4" t="s">
+        <v>4544</v>
+      </c>
+      <c r="H1153" s="4" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1154" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1154" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E1154" s="4" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F1154" s="4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G1154" s="4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="H1154" s="4" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1155" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1155" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>4550</v>
+      </c>
+      <c r="E1155" s="4" t="s">
+        <v>4551</v>
+      </c>
+      <c r="F1155" s="4" t="s">
+        <v>4552</v>
+      </c>
+      <c r="G1155" s="4" t="s">
+        <v>4552</v>
+      </c>
+      <c r="H1155" s="4" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="1156" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1156" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1156" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>4554</v>
+      </c>
+      <c r="E1156" s="4" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F1156" s="4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G1156" s="4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="H1156" s="4" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1157" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1157" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>4557</v>
+      </c>
+      <c r="E1157" s="4" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F1157" s="4" t="s">
+        <v>4559</v>
+      </c>
+      <c r="G1157" s="4" t="s">
+        <v>4559</v>
+      </c>
+      <c r="H1157" s="4" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>4562</v>
+      </c>
+      <c r="D1158" s="3" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E1158" s="3" t="s">
+        <v>4564</v>
+      </c>
+      <c r="F1158" s="3" t="s">
+        <v>4565</v>
+      </c>
+      <c r="G1158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>4567</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1159" s="4" t="s">
+        <v>4569</v>
+      </c>
+      <c r="F1159" s="4" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1160" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D1064" s="4" t="s">
+      <c r="D1160" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E1064" s="4" t="s">
+      <c r="E1160" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F1064" s="4" t="s">
+      <c r="F1160" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G1064" s="4" t="s">
+      <c r="G1160" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1065" s="4" t="s">
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1161" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1065" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1065" s="4" t="s">
+      <c r="B1161" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1161" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1065" s="4" t="s">
+      <c r="D1161" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E1065" s="4" t="s">
+      <c r="E1161" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F1065" s="4" t="s">
+      <c r="F1161" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G1065" s="4" t="s">
+      <c r="G1161" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1066" s="4" t="s">
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1162" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1066" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1066" s="4" t="s">
-        <v>4204</v>
-      </c>
-      <c r="D1066" s="4" t="s">
-        <v>4205</v>
-      </c>
-      <c r="E1066" s="4" t="s">
-        <v>4206</v>
-      </c>
-      <c r="F1066" s="4" t="s">
-        <v>4206</v>
-      </c>
-      <c r="G1066" s="4" t="s">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1067" s="4" t="s">
+      <c r="B1162" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1162" s="4" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>4574</v>
+      </c>
+      <c r="E1162" s="4" t="s">
+        <v>4575</v>
+      </c>
+      <c r="F1162" s="4" t="s">
+        <v>4575</v>
+      </c>
+      <c r="G1162" s="4" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1163" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1067" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1067" s="4" t="s">
-        <v>4208</v>
-      </c>
-      <c r="D1067" s="4" t="s">
-        <v>4209</v>
-      </c>
-      <c r="E1067" s="4" t="s">
-        <v>4210</v>
-      </c>
-      <c r="F1067" s="4" t="s">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1068" s="4" t="s">
+      <c r="B1163" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>4578</v>
+      </c>
+      <c r="E1163" s="4" t="s">
+        <v>4579</v>
+      </c>
+      <c r="F1163" s="4" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1164" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1068" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1068" s="4" t="s">
+      <c r="B1164" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1164" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="D1068" s="4" t="s">
+      <c r="D1164" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E1068" s="4" t="s">
+      <c r="E1164" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F1068" s="4" t="s">
+      <c r="F1164" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="G1068" s="4" t="s">
+      <c r="G1164" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1069" s="4" t="s">
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1165" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1069" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1069" s="4" t="s">
+      <c r="B1165" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1165" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D1069" s="4" t="s">
+      <c r="D1165" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="E1069" s="4" t="s">
+      <c r="E1165" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F1069" s="4" t="s">
+      <c r="F1165" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G1069" s="4" t="s">
+      <c r="G1165" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1070" s="4" t="s">
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1166" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1070" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1070" s="4" t="s">
-        <v>4211</v>
-      </c>
-      <c r="D1070" s="4" t="s">
-        <v>4212</v>
-      </c>
-      <c r="E1070" s="4" t="s">
-        <v>4213</v>
-      </c>
-      <c r="F1070" s="4" t="s">
-        <v>4213</v>
-      </c>
-      <c r="G1070" s="4" t="s">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1071" s="4" t="s">
+      <c r="B1166" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D1166" s="4" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E1166" s="4" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F1166" s="4" t="s">
+        <v>4582</v>
+      </c>
+      <c r="G1166" s="4" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1167" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1071" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1071" s="4" t="s">
-        <v>4215</v>
-      </c>
-      <c r="D1071" s="4" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E1071" s="4" t="s">
-        <v>4217</v>
-      </c>
-      <c r="F1071" s="4" t="s">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1072" s="4" t="s">
+      <c r="B1167" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>4585</v>
+      </c>
+      <c r="E1167" s="4" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F1167" s="4" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1168" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1072" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1072" s="4" t="s">
+      <c r="B1168" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1168" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="D1072" s="4" t="s">
+      <c r="D1168" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="E1072" s="4" t="s">
+      <c r="E1168" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F1072" s="4" t="s">
+      <c r="F1168" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="G1072" s="4" t="s">
+      <c r="G1168" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1073" s="4" t="s">
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1169" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1073" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1073" s="4" t="s">
+      <c r="B1169" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1169" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="D1073" s="4" t="s">
+      <c r="D1169" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="E1073" s="4" t="s">
+      <c r="E1169" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="F1073" s="4" t="s">
+      <c r="F1169" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="G1073" s="4" t="s">
+      <c r="G1169" s="4" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1074" s="4" t="s">
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1170" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1074" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1074" s="4" t="s">
-        <v>4218</v>
-      </c>
-      <c r="D1074" s="4" t="s">
-        <v>4219</v>
-      </c>
-      <c r="E1074" s="4" t="s">
-        <v>4220</v>
-      </c>
-      <c r="F1074" s="4" t="s">
-        <v>4220</v>
-      </c>
-      <c r="G1074" s="4" t="s">
-        <v>4221</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1075" s="4" t="s">
+      <c r="B1170" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E1170" s="4" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F1170" s="4" t="s">
+        <v>4589</v>
+      </c>
+      <c r="G1170" s="4" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1171" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1075" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1075" s="4" t="s">
-        <v>4222</v>
-      </c>
-      <c r="D1075" s="4" t="s">
-        <v>4223</v>
-      </c>
-      <c r="E1075" s="4" t="s">
-        <v>4224</v>
-      </c>
-      <c r="F1075" s="4" t="s">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1076" s="4" t="s">
+      <c r="B1171" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D1171" s="4" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E1171" s="4" t="s">
+        <v>4593</v>
+      </c>
+      <c r="F1171" s="4" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1172" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1076" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1076" s="4" t="s">
+      <c r="B1172" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1172" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="D1076" s="4" t="s">
+      <c r="D1172" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="E1076" s="4" t="s">
+      <c r="E1172" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="F1076" s="4" t="s">
+      <c r="F1172" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="G1076" s="4" t="s">
+      <c r="G1172" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1077" s="4" t="s">
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1173" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1077" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1077" s="4" t="s">
+      <c r="B1173" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1173" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="D1077" s="4" t="s">
+      <c r="D1173" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E1077" s="4" t="s">
+      <c r="E1173" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="F1077" s="4" t="s">
+      <c r="F1173" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="G1077" s="4" t="s">
+      <c r="G1173" s="4" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1078" s="4" t="s">
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1174" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1078" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1078" s="4" t="s">
-        <v>4225</v>
-      </c>
-      <c r="D1078" s="4" t="s">
-        <v>4226</v>
-      </c>
-      <c r="E1078" s="4" t="s">
-        <v>4227</v>
-      </c>
-      <c r="F1078" s="4" t="s">
-        <v>4227</v>
-      </c>
-      <c r="G1078" s="4" t="s">
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1079" s="4" t="s">
+      <c r="B1174" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D1174" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E1174" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="F1174" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G1174" s="4" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1175" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1079" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1079" s="4" t="s">
-        <v>4229</v>
-      </c>
-      <c r="D1079" s="4" t="s">
-        <v>4230</v>
-      </c>
-      <c r="E1079" s="4" t="s">
-        <v>4231</v>
-      </c>
-      <c r="F1079" s="4" t="s">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1080" s="4" t="s">
+      <c r="B1175" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="D1175" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="E1175" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F1175" s="4" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1176" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1080" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1080" s="4" t="s">
+      <c r="B1176" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1176" s="4" t="s">
         <v>1876</v>
       </c>
-      <c r="D1080" s="4" t="s">
+      <c r="D1176" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="E1080" s="4" t="s">
+      <c r="E1176" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="F1080" s="4" t="s">
+      <c r="F1176" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="G1080" s="4" t="s">
+      <c r="G1176" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1081" s="4" t="s">
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1177" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1081" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1081" s="4" t="s">
+      <c r="B1177" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1177" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="D1081" s="4" t="s">
+      <c r="D1177" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="E1081" s="4" t="s">
+      <c r="E1177" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="F1081" s="4" t="s">
+      <c r="F1177" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="G1081" s="4" t="s">
+      <c r="G1177" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1082" s="4" t="s">
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1178" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1082" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1082" s="4" t="s">
-        <v>4232</v>
-      </c>
-      <c r="D1082" s="4" t="s">
-        <v>4233</v>
-      </c>
-      <c r="E1082" s="4" t="s">
-        <v>4234</v>
-      </c>
-      <c r="F1082" s="4" t="s">
-        <v>4234</v>
-      </c>
-      <c r="G1082" s="4" t="s">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1083" s="4" t="s">
+      <c r="B1178" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="E1178" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="F1178" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="G1178" s="4" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1179" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1083" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1083" s="4" t="s">
-        <v>4236</v>
-      </c>
-      <c r="D1083" s="4" t="s">
-        <v>4237</v>
-      </c>
-      <c r="E1083" s="4" t="s">
-        <v>4238</v>
-      </c>
-      <c r="F1083" s="4" t="s">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1084" s="4" t="s">
+      <c r="B1179" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E1179" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="F1179" s="4" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1180" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1084" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1084" s="4" t="s">
+      <c r="B1180" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1180" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="D1084" s="4" t="s">
+      <c r="D1180" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="E1084" s="4" t="s">
+      <c r="E1180" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="F1084" s="4" t="s">
+      <c r="F1180" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="G1084" s="4" t="s">
+      <c r="G1180" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1085" s="4" t="s">
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1181" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1085" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1085" s="4" t="s">
+      <c r="B1181" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1181" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="D1085" s="4" t="s">
+      <c r="D1181" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="E1085" s="4" t="s">
+      <c r="E1181" s="4" t="s">
         <v>2245</v>
       </c>
-      <c r="F1085" s="4" t="s">
+      <c r="F1181" s="4" t="s">
         <v>2245</v>
       </c>
-      <c r="G1085" s="4" t="s">
+      <c r="G1181" s="4" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1086" s="4" t="s">
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1182" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1086" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1086" s="4" t="s">
-        <v>4239</v>
-      </c>
-      <c r="D1086" s="4" t="s">
-        <v>4240</v>
-      </c>
-      <c r="E1086" s="4" t="s">
-        <v>4241</v>
-      </c>
-      <c r="F1086" s="4" t="s">
-        <v>4241</v>
-      </c>
-      <c r="G1086" s="4" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1087" s="4" t="s">
+      <c r="B1182" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E1182" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="F1182" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="G1182" s="4" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1183" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="B1087" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1087" s="4" t="s">
-        <v>4243</v>
-      </c>
-      <c r="D1087" s="4" t="s">
-        <v>4244</v>
-      </c>
-      <c r="E1087" s="4" t="s">
-        <v>4245</v>
-      </c>
-      <c r="F1087" s="4" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1088" s="4" t="s">
+      <c r="B1183" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1183" s="4" t="s">
+        <v>4613</v>
+      </c>
+      <c r="E1183" s="4" t="s">
+        <v>4614</v>
+      </c>
+      <c r="F1183" s="4" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1184" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="B1088" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1088" s="4" t="s">
+      <c r="B1184" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1184" s="4" t="s">
         <v>2455</v>
       </c>
-      <c r="D1088" s="4" t="s">
+      <c r="D1184" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="E1088" s="4" t="s">
+      <c r="E1184" s="4" t="s">
         <v>2488</v>
       </c>
-      <c r="F1088" s="4" t="s">
+      <c r="F1184" s="4" t="s">
         <v>2488</v>
       </c>
-      <c r="G1088" s="4" t="s">
+      <c r="G1184" s="4" t="s">
         <v>2624</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1089" s="4" t="s">
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1185" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="B1089" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1089" s="4" t="s">
+      <c r="B1185" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1185" s="4" t="s">
         <v>2700</v>
       </c>
-      <c r="D1089" s="4" t="s">
+      <c r="D1185" s="4" t="s">
         <v>2618</v>
       </c>
-      <c r="E1089" s="4" t="s">
+      <c r="E1185" s="4" t="s">
         <v>2635</v>
       </c>
-      <c r="F1089" s="4" t="s">
+      <c r="F1185" s="4" t="s">
         <v>2635</v>
       </c>
-      <c r="G1089" s="4" t="s">
+      <c r="G1185" s="4" t="s">
         <v>2545</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1090" s="4" t="s">
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1186" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="B1090" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1090" s="4" t="s">
-        <v>4246</v>
-      </c>
-      <c r="D1090" s="4" t="s">
-        <v>4247</v>
-      </c>
-      <c r="E1090" s="4" t="s">
-        <v>4248</v>
-      </c>
-      <c r="F1090" s="4" t="s">
-        <v>4248</v>
-      </c>
-      <c r="G1090" s="4" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1091" s="4" t="s">
+      <c r="B1186" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E1186" s="4" t="s">
+        <v>4617</v>
+      </c>
+      <c r="F1186" s="4" t="s">
+        <v>4617</v>
+      </c>
+      <c r="G1186" s="4" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1187" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="B1091" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1091" s="4" t="s">
-        <v>4250</v>
-      </c>
-      <c r="D1091" s="4" t="s">
-        <v>4251</v>
-      </c>
-      <c r="E1091" s="4" t="s">
-        <v>4252</v>
-      </c>
-      <c r="F1091" s="4" t="s">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1092" s="4" t="s">
+      <c r="B1187" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>4619</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E1187" s="4" t="s">
+        <v>4621</v>
+      </c>
+      <c r="F1187" s="4" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1188" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="B1092" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1092" s="4" t="s">
+      <c r="B1188" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1188" s="4" t="s">
         <v>2995</v>
       </c>
-      <c r="D1092" s="4" t="s">
+      <c r="D1188" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="E1092" s="4" t="s">
+      <c r="E1188" s="4" t="s">
         <v>2962</v>
       </c>
-      <c r="F1092" s="4" t="s">
+      <c r="F1188" s="4" t="s">
         <v>2962</v>
       </c>
-      <c r="G1092" s="4" t="s">
+      <c r="G1188" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1093" s="4" t="s">
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1189" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="B1093" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1093" s="4" t="s">
+      <c r="B1189" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1189" s="4" t="s">
         <v>2713</v>
       </c>
-      <c r="D1093" s="4" t="s">
+      <c r="D1189" s="4" t="s">
         <v>2996</v>
       </c>
-      <c r="E1093" s="4" t="s">
+      <c r="E1189" s="4" t="s">
         <v>2997</v>
       </c>
-      <c r="F1093" s="4" t="s">
+      <c r="F1189" s="4" t="s">
         <v>2997</v>
       </c>
-      <c r="G1093" s="4" t="s">
+      <c r="G1189" s="4" t="s">
         <v>2933</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1094" s="4" t="s">
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1190" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="B1094" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1094" s="4" t="s">
-        <v>4253</v>
-      </c>
-      <c r="D1094" s="4" t="s">
-        <v>4254</v>
-      </c>
-      <c r="E1094" s="4" t="s">
-        <v>4255</v>
-      </c>
-      <c r="F1094" s="4" t="s">
-        <v>4255</v>
-      </c>
-      <c r="G1094" s="4" t="s">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1095" s="4" t="s">
+      <c r="B1190" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>4623</v>
+      </c>
+      <c r="E1190" s="4" t="s">
+        <v>4624</v>
+      </c>
+      <c r="F1190" s="4" t="s">
+        <v>4624</v>
+      </c>
+      <c r="G1190" s="4" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1191" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="B1095" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1095" s="4" t="s">
-        <v>4257</v>
-      </c>
-      <c r="D1095" s="4" t="s">
-        <v>4258</v>
-      </c>
-      <c r="E1095" s="4" t="s">
-        <v>4259</v>
-      </c>
-      <c r="F1095" s="4" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1096" s="4" t="s">
+      <c r="B1191" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>4626</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>4627</v>
+      </c>
+      <c r="E1191" s="4" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F1191" s="4" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1192" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="B1096" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1096" s="4" t="s">
+      <c r="B1192" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1192" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="D1096" s="4" t="s">
+      <c r="D1192" s="4" t="s">
         <v>3287</v>
       </c>
-      <c r="E1096" s="4" t="s">
+      <c r="E1192" s="4" t="s">
         <v>3226</v>
       </c>
-      <c r="F1096" s="4" t="s">
+      <c r="F1192" s="4" t="s">
         <v>3226</v>
       </c>
-      <c r="G1096" s="4" t="s">
+      <c r="G1192" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1097" s="4" t="s">
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1193" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="B1097" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1097" s="4" t="s">
+      <c r="B1193" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1193" s="4" t="s">
         <v>3445</v>
       </c>
-      <c r="D1097" s="4" t="s">
+      <c r="D1193" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="E1097" s="4" t="s">
+      <c r="E1193" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="F1097" s="4" t="s">
+      <c r="F1193" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="G1097" s="4" t="s">
+      <c r="G1193" s="4" t="s">
         <v>3289</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1098" s="4" t="s">
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1194" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="B1098" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1098" s="4" t="s">
-        <v>4260</v>
-      </c>
-      <c r="D1098" s="4" t="s">
-        <v>4261</v>
-      </c>
-      <c r="E1098" s="4" t="s">
-        <v>4262</v>
-      </c>
-      <c r="F1098" s="4" t="s">
-        <v>4262</v>
-      </c>
-      <c r="G1098" s="4" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1099" s="4" t="s">
+      <c r="B1194" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E1194" s="4" t="s">
+        <v>4631</v>
+      </c>
+      <c r="F1194" s="4" t="s">
+        <v>4631</v>
+      </c>
+      <c r="G1194" s="4" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1195" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="B1099" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1099" s="4" t="s">
-        <v>4264</v>
-      </c>
-      <c r="D1099" s="4" t="s">
-        <v>4265</v>
-      </c>
-      <c r="E1099" s="4" t="s">
-        <v>4266</v>
-      </c>
-      <c r="F1099" s="4" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1100" s="4" t="s">
+      <c r="B1195" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E1195" s="4" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F1195" s="4" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1196" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="B1100" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1100" s="4" t="s">
+      <c r="B1196" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1196" s="4" t="s">
         <v>3730</v>
       </c>
-      <c r="D1100" s="4" t="s">
+      <c r="D1196" s="4" t="s">
         <v>3654</v>
       </c>
-      <c r="E1100" s="4" t="s">
+      <c r="E1196" s="4" t="s">
         <v>3607</v>
       </c>
-      <c r="F1100" s="4" t="s">
+      <c r="F1196" s="4" t="s">
         <v>3607</v>
       </c>
-      <c r="G1100" s="4" t="s">
+      <c r="G1196" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1101" s="4" t="s">
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1197" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="B1101" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1101" s="4" t="s">
+      <c r="B1197" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1197" s="4" t="s">
         <v>3814</v>
       </c>
-      <c r="D1101" s="4" t="s">
+      <c r="D1197" s="4" t="s">
         <v>3731</v>
       </c>
-      <c r="E1101" s="4" t="s">
+      <c r="E1197" s="4" t="s">
         <v>3732</v>
       </c>
-      <c r="F1101" s="4" t="s">
+      <c r="F1197" s="4" t="s">
         <v>3732</v>
       </c>
-      <c r="G1101" s="4" t="s">
+      <c r="G1197" s="4" t="s">
         <v>3656</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1102" s="4" t="s">
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1198" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="B1102" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1102" s="4" t="s">
-        <v>4267</v>
-      </c>
-      <c r="D1102" s="4" t="s">
-        <v>4268</v>
-      </c>
-      <c r="E1102" s="4" t="s">
-        <v>4269</v>
-      </c>
-      <c r="F1102" s="4" t="s">
-        <v>4269</v>
-      </c>
-      <c r="G1102" s="4" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1103" s="4" t="s">
+      <c r="B1198" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>4636</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E1198" s="4" t="s">
+        <v>4638</v>
+      </c>
+      <c r="F1198" s="4" t="s">
+        <v>4638</v>
+      </c>
+      <c r="G1198" s="4" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1199" s="4" t="s">
         <v>3818</v>
       </c>
-      <c r="B1103" s="4" t="s">
-        <v>4197</v>
-      </c>
-      <c r="C1103" s="4" t="s">
-        <v>4271</v>
-      </c>
-      <c r="D1103" s="4" t="s">
-        <v>4272</v>
-      </c>
-      <c r="E1103" s="4" t="s">
-        <v>4273</v>
-      </c>
-      <c r="F1103" s="4" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1104" s="4" t="s">
+      <c r="B1199" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>4640</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E1199" s="4" t="s">
+        <v>4642</v>
+      </c>
+      <c r="F1199" s="4" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1200" s="4" t="s">
         <v>3818</v>
       </c>
-      <c r="B1104" s="4" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C1104" s="4" t="s">
+      <c r="B1200" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1200" s="4" t="s">
         <v>4104</v>
       </c>
-      <c r="D1104" s="4" t="s">
+      <c r="D1200" s="4" t="s">
         <v>4028</v>
       </c>
-      <c r="E1104" s="4" t="s">
+      <c r="E1200" s="4" t="s">
         <v>4069</v>
       </c>
-      <c r="F1104" s="4" t="s">
+      <c r="F1200" s="4" t="s">
         <v>4069</v>
       </c>
-      <c r="G1104" s="4" t="s">
+      <c r="G1200" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1105" s="4" t="s">
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1201" s="4" t="s">
         <v>3818</v>
       </c>
-      <c r="B1105" s="4" t="s">
-        <v>4202</v>
-      </c>
-      <c r="C1105" s="4" t="s">
+      <c r="B1201" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1201" s="4" t="s">
         <v>4188</v>
       </c>
-      <c r="D1105" s="4" t="s">
+      <c r="D1201" s="4" t="s">
         <v>4102</v>
       </c>
-      <c r="E1105" s="4" t="s">
+      <c r="E1201" s="4" t="s">
         <v>4103</v>
       </c>
-      <c r="F1105" s="4" t="s">
+      <c r="F1201" s="4" t="s">
         <v>4103</v>
       </c>
-      <c r="G1105" s="4" t="s">
+      <c r="G1201" s="4" t="s">
         <v>4030</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1106" s="4" t="s">
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1202" s="4" t="s">
         <v>3818</v>
       </c>
-      <c r="B1106" s="4" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C1106" s="4" t="s">
-        <v>4274</v>
-      </c>
-      <c r="D1106" s="4" t="s">
-        <v>4275</v>
-      </c>
-      <c r="E1106" s="4" t="s">
-        <v>4276</v>
-      </c>
-      <c r="F1106" s="4" t="s">
-        <v>4276</v>
-      </c>
-      <c r="G1106" s="4" t="s">
-        <v>4277</v>
+      <c r="B1202" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>4643</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E1202" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="F1202" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="G1202" s="4" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1203" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E1203" s="4" t="s">
+        <v>4649</v>
+      </c>
+      <c r="F1203" s="4" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1204" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E1204" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="F1204" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G1204" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1205" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>4557</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>4469</v>
+      </c>
+      <c r="E1205" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F1205" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="G1205" s="4" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1206" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>4650</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>4651</v>
+      </c>
+      <c r="E1206" s="4" t="s">
+        <v>4652</v>
+      </c>
+      <c r="F1206" s="4" t="s">
+        <v>4652</v>
+      </c>
+      <c r="G1206" s="4" t="s">
+        <v>4653</v>
       </c>
     </row>
   </sheetData>

--- a/DAM_Market Snapshot Dec 2025.xlsx
+++ b/DAM_Market Snapshot Dec 2025.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11201" uniqueCount="6165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11900" uniqueCount="6539">
   <si>
     <t>Market Snapshot</t>
   </si>
   <si>
-    <t>Date: 01-12-2025 to 16-12-2025</t>
+    <t>Date: 01-12-2025 to 18-12-2025</t>
   </si>
   <si>
     <t>Date</t>
@@ -18145,6 +18145,1107 @@
     <t>2298.79</t>
   </si>
   <si>
+    <t>17-12-2025</t>
+  </si>
+  <si>
+    <t>11973.00</t>
+  </si>
+  <si>
+    <t>29979.90</t>
+  </si>
+  <si>
+    <t>7446.50</t>
+  </si>
+  <si>
+    <t>2336.41</t>
+  </si>
+  <si>
+    <t>11861.80</t>
+  </si>
+  <si>
+    <t>30641.50</t>
+  </si>
+  <si>
+    <t>7384.37</t>
+  </si>
+  <si>
+    <t>2298.97</t>
+  </si>
+  <si>
+    <t>12278.40</t>
+  </si>
+  <si>
+    <t>31325.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>2401.72</t>
+  </si>
+  <si>
+    <t>12638.80</t>
+  </si>
+  <si>
+    <t>31898.30</t>
+  </si>
+  <si>
+    <t>7758.68</t>
+  </si>
+  <si>
+    <t>2500.72</t>
+  </si>
+  <si>
+    <t>12573.60</t>
+  </si>
+  <si>
+    <t>32632.50</t>
+  </si>
+  <si>
+    <t>7777.61</t>
+  </si>
+  <si>
+    <t>2497.23</t>
+  </si>
+  <si>
+    <t>12574.00</t>
+  </si>
+  <si>
+    <t>33063.50</t>
+  </si>
+  <si>
+    <t>7819.76</t>
+  </si>
+  <si>
+    <t>12555.50</t>
+  </si>
+  <si>
+    <t>33593.10</t>
+  </si>
+  <si>
+    <t>7804.46</t>
+  </si>
+  <si>
+    <t>2416.65</t>
+  </si>
+  <si>
+    <t>12575.30</t>
+  </si>
+  <si>
+    <t>34734.70</t>
+  </si>
+  <si>
+    <t>7823.86</t>
+  </si>
+  <si>
+    <t>2416.28</t>
+  </si>
+  <si>
+    <t>12403.00</t>
+  </si>
+  <si>
+    <t>34872.10</t>
+  </si>
+  <si>
+    <t>7929.57</t>
+  </si>
+  <si>
+    <t>2298.82</t>
+  </si>
+  <si>
+    <t>35360.40</t>
+  </si>
+  <si>
+    <t>7961.10</t>
+  </si>
+  <si>
+    <t>2350.41</t>
+  </si>
+  <si>
+    <t>12760.70</t>
+  </si>
+  <si>
+    <t>35294.10</t>
+  </si>
+  <si>
+    <t>8225.80</t>
+  </si>
+  <si>
+    <t>2350.31</t>
+  </si>
+  <si>
+    <t>12967.50</t>
+  </si>
+  <si>
+    <t>35644.40</t>
+  </si>
+  <si>
+    <t>8312.40</t>
+  </si>
+  <si>
+    <t>2401.60</t>
+  </si>
+  <si>
+    <t>13455.10</t>
+  </si>
+  <si>
+    <t>35752.00</t>
+  </si>
+  <si>
+    <t>8711.60</t>
+  </si>
+  <si>
+    <t>2416.48</t>
+  </si>
+  <si>
+    <t>13774.60</t>
+  </si>
+  <si>
+    <t>35429.60</t>
+  </si>
+  <si>
+    <t>9028.80</t>
+  </si>
+  <si>
+    <t>2416.95</t>
+  </si>
+  <si>
+    <t>14157.20</t>
+  </si>
+  <si>
+    <t>35591.60</t>
+  </si>
+  <si>
+    <t>9368.65</t>
+  </si>
+  <si>
+    <t>2497.64</t>
+  </si>
+  <si>
+    <t>14539.80</t>
+  </si>
+  <si>
+    <t>35667.70</t>
+  </si>
+  <si>
+    <t>9582.60</t>
+  </si>
+  <si>
+    <t>15108.50</t>
+  </si>
+  <si>
+    <t>33708.80</t>
+  </si>
+  <si>
+    <t>9772.23</t>
+  </si>
+  <si>
+    <t>2599.72</t>
+  </si>
+  <si>
+    <t>15704.30</t>
+  </si>
+  <si>
+    <t>32450.50</t>
+  </si>
+  <si>
+    <t>9665.50</t>
+  </si>
+  <si>
+    <t>2750.79</t>
+  </si>
+  <si>
+    <t>15329.00</t>
+  </si>
+  <si>
+    <t>31712.70</t>
+  </si>
+  <si>
+    <t>8926.90</t>
+  </si>
+  <si>
+    <t>2730.86</t>
+  </si>
+  <si>
+    <t>29953.90</t>
+  </si>
+  <si>
+    <t>9066.85</t>
+  </si>
+  <si>
+    <t>2799.50</t>
+  </si>
+  <si>
+    <t>14899.00</t>
+  </si>
+  <si>
+    <t>28271.10</t>
+  </si>
+  <si>
+    <t>8007.35</t>
+  </si>
+  <si>
+    <t>2887.73</t>
+  </si>
+  <si>
+    <t>14429.10</t>
+  </si>
+  <si>
+    <t>26641.60</t>
+  </si>
+  <si>
+    <t>7841.25</t>
+  </si>
+  <si>
+    <t>3030.41</t>
+  </si>
+  <si>
+    <t>14243.70</t>
+  </si>
+  <si>
+    <t>23898.70</t>
+  </si>
+  <si>
+    <t>7427.17</t>
+  </si>
+  <si>
+    <t>3044.90</t>
+  </si>
+  <si>
+    <t>14202.50</t>
+  </si>
+  <si>
+    <t>21645.10</t>
+  </si>
+  <si>
+    <t>6866.70</t>
+  </si>
+  <si>
+    <t>3120.90</t>
+  </si>
+  <si>
+    <t>15563.90</t>
+  </si>
+  <si>
+    <t>17127.50</t>
+  </si>
+  <si>
+    <t>7728.89</t>
+  </si>
+  <si>
+    <t>3750.28</t>
+  </si>
+  <si>
+    <t>16732.90</t>
+  </si>
+  <si>
+    <t>16703.60</t>
+  </si>
+  <si>
+    <t>8687.70</t>
+  </si>
+  <si>
+    <t>4082.76</t>
+  </si>
+  <si>
+    <t>14858.00</t>
+  </si>
+  <si>
+    <t>9142.80</t>
+  </si>
+  <si>
+    <t>4297.79</t>
+  </si>
+  <si>
+    <t>19345.30</t>
+  </si>
+  <si>
+    <t>14514.40</t>
+  </si>
+  <si>
+    <t>10205.80</t>
+  </si>
+  <si>
+    <t>4638.52</t>
+  </si>
+  <si>
+    <t>21263.40</t>
+  </si>
+  <si>
+    <t>14617.80</t>
+  </si>
+  <si>
+    <t>11650.80</t>
+  </si>
+  <si>
+    <t>5298.35</t>
+  </si>
+  <si>
+    <t>22510.50</t>
+  </si>
+  <si>
+    <t>14277.40</t>
+  </si>
+  <si>
+    <t>11681.40</t>
+  </si>
+  <si>
+    <t>7400.26</t>
+  </si>
+  <si>
+    <t>22566.90</t>
+  </si>
+  <si>
+    <t>13316.30</t>
+  </si>
+  <si>
+    <t>10748.30</t>
+  </si>
+  <si>
+    <t>7900.36</t>
+  </si>
+  <si>
+    <t>21824.40</t>
+  </si>
+  <si>
+    <t>13222.30</t>
+  </si>
+  <si>
+    <t>10640.30</t>
+  </si>
+  <si>
+    <t>6700.20</t>
+  </si>
+  <si>
+    <t>20529.50</t>
+  </si>
+  <si>
+    <t>13263.80</t>
+  </si>
+  <si>
+    <t>10361.00</t>
+  </si>
+  <si>
+    <t>5061.44</t>
+  </si>
+  <si>
+    <t>19920.50</t>
+  </si>
+  <si>
+    <t>13890.10</t>
+  </si>
+  <si>
+    <t>9607.10</t>
+  </si>
+  <si>
+    <t>4638.49</t>
+  </si>
+  <si>
+    <t>19321.60</t>
+  </si>
+  <si>
+    <t>15459.20</t>
+  </si>
+  <si>
+    <t>9267.90</t>
+  </si>
+  <si>
+    <t>4297.73</t>
+  </si>
+  <si>
+    <t>18905.30</t>
+  </si>
+  <si>
+    <t>17298.30</t>
+  </si>
+  <si>
+    <t>9119.00</t>
+  </si>
+  <si>
+    <t>4082.71</t>
+  </si>
+  <si>
+    <t>19282.30</t>
+  </si>
+  <si>
+    <t>19014.80</t>
+  </si>
+  <si>
+    <t>9726.50</t>
+  </si>
+  <si>
+    <t>3626.37</t>
+  </si>
+  <si>
+    <t>20030.90</t>
+  </si>
+  <si>
+    <t>19179.80</t>
+  </si>
+  <si>
+    <t>10154.26</t>
+  </si>
+  <si>
+    <t>3600.89</t>
+  </si>
+  <si>
+    <t>18531.50</t>
+  </si>
+  <si>
+    <t>18823.80</t>
+  </si>
+  <si>
+    <t>9254.52</t>
+  </si>
+  <si>
+    <t>3620.15</t>
+  </si>
+  <si>
+    <t>17331.60</t>
+  </si>
+  <si>
+    <t>18898.90</t>
+  </si>
+  <si>
+    <t>8790.90</t>
+  </si>
+  <si>
+    <t>3499.26</t>
+  </si>
+  <si>
+    <t>17110.60</t>
+  </si>
+  <si>
+    <t>21317.20</t>
+  </si>
+  <si>
+    <t>8819.90</t>
+  </si>
+  <si>
+    <t>3320.15</t>
+  </si>
+  <si>
+    <t>16898.00</t>
+  </si>
+  <si>
+    <t>21554.90</t>
+  </si>
+  <si>
+    <t>8388.40</t>
+  </si>
+  <si>
+    <t>3294.06</t>
+  </si>
+  <si>
+    <t>17055.30</t>
+  </si>
+  <si>
+    <t>24318.30</t>
+  </si>
+  <si>
+    <t>8369.83</t>
+  </si>
+  <si>
+    <t>3170.66</t>
+  </si>
+  <si>
+    <t>17207.50</t>
+  </si>
+  <si>
+    <t>25399.10</t>
+  </si>
+  <si>
+    <t>8394.23</t>
+  </si>
+  <si>
+    <t>3180.07</t>
+  </si>
+  <si>
+    <t>16592.30</t>
+  </si>
+  <si>
+    <t>26081.10</t>
+  </si>
+  <si>
+    <t>7495.70</t>
+  </si>
+  <si>
+    <t>3040.48</t>
+  </si>
+  <si>
+    <t>17733.50</t>
+  </si>
+  <si>
+    <t>27624.50</t>
+  </si>
+  <si>
+    <t>8008.84</t>
+  </si>
+  <si>
+    <t>2890.55</t>
+  </si>
+  <si>
+    <t>16101.20</t>
+  </si>
+  <si>
+    <t>27314.30</t>
+  </si>
+  <si>
+    <t>6870.06</t>
+  </si>
+  <si>
+    <t>16173.30</t>
+  </si>
+  <si>
+    <t>28571.80</t>
+  </si>
+  <si>
+    <t>7138.00</t>
+  </si>
+  <si>
+    <t>3040.74</t>
+  </si>
+  <si>
+    <t>14673.70</t>
+  </si>
+  <si>
+    <t>29633.70</t>
+  </si>
+  <si>
+    <t>2915.99</t>
+  </si>
+  <si>
+    <t>14486.50</t>
+  </si>
+  <si>
+    <t>30056.70</t>
+  </si>
+  <si>
+    <t>6736.15</t>
+  </si>
+  <si>
+    <t>2840.75</t>
+  </si>
+  <si>
+    <t>14436.00</t>
+  </si>
+  <si>
+    <t>30649.40</t>
+  </si>
+  <si>
+    <t>6703.20</t>
+  </si>
+  <si>
+    <t>2812.54</t>
+  </si>
+  <si>
+    <t>16459.00</t>
+  </si>
+  <si>
+    <t>33298.50</t>
+  </si>
+  <si>
+    <t>2600.80</t>
+  </si>
+  <si>
+    <t>15150.60</t>
+  </si>
+  <si>
+    <t>35087.00</t>
+  </si>
+  <si>
+    <t>8046.80</t>
+  </si>
+  <si>
+    <t>2320.48</t>
+  </si>
+  <si>
+    <t>14869.20</t>
+  </si>
+  <si>
+    <t>35723.90</t>
+  </si>
+  <si>
+    <t>8046.30</t>
+  </si>
+  <si>
+    <t>2270.48</t>
+  </si>
+  <si>
+    <t>14743.60</t>
+  </si>
+  <si>
+    <t>35070.10</t>
+  </si>
+  <si>
+    <t>7803.10</t>
+  </si>
+  <si>
+    <t>2270.55</t>
+  </si>
+  <si>
+    <t>14230.10</t>
+  </si>
+  <si>
+    <t>34706.60</t>
+  </si>
+  <si>
+    <t>8216.60</t>
+  </si>
+  <si>
+    <t>2560.12</t>
+  </si>
+  <si>
+    <t>14960.10</t>
+  </si>
+  <si>
+    <t>31040.50</t>
+  </si>
+  <si>
+    <t>6842.40</t>
+  </si>
+  <si>
+    <t>2710.49</t>
+  </si>
+  <si>
+    <t>15265.00</t>
+  </si>
+  <si>
+    <t>30135.00</t>
+  </si>
+  <si>
+    <t>6854.40</t>
+  </si>
+  <si>
+    <t>2750.51</t>
+  </si>
+  <si>
+    <t>15589.90</t>
+  </si>
+  <si>
+    <t>28974.40</t>
+  </si>
+  <si>
+    <t>7586.30</t>
+  </si>
+  <si>
+    <t>17727.80</t>
+  </si>
+  <si>
+    <t>28579.30</t>
+  </si>
+  <si>
+    <t>8853.80</t>
+  </si>
+  <si>
+    <t>2700.68</t>
+  </si>
+  <si>
+    <t>17497.10</t>
+  </si>
+  <si>
+    <t>26895.70</t>
+  </si>
+  <si>
+    <t>8615.50</t>
+  </si>
+  <si>
+    <t>2710.56</t>
+  </si>
+  <si>
+    <t>17654.30</t>
+  </si>
+  <si>
+    <t>25843.60</t>
+  </si>
+  <si>
+    <t>8635.90</t>
+  </si>
+  <si>
+    <t>2812.05</t>
+  </si>
+  <si>
+    <t>18693.50</t>
+  </si>
+  <si>
+    <t>24476.30</t>
+  </si>
+  <si>
+    <t>10237.68</t>
+  </si>
+  <si>
+    <t>3080.28</t>
+  </si>
+  <si>
+    <t>18272.70</t>
+  </si>
+  <si>
+    <t>21803.30</t>
+  </si>
+  <si>
+    <t>9413.40</t>
+  </si>
+  <si>
+    <t>3311.24</t>
+  </si>
+  <si>
+    <t>17502.60</t>
+  </si>
+  <si>
+    <t>21564.00</t>
+  </si>
+  <si>
+    <t>10002.50</t>
+  </si>
+  <si>
+    <t>3311.89</t>
+  </si>
+  <si>
+    <t>18780.60</t>
+  </si>
+  <si>
+    <t>20188.90</t>
+  </si>
+  <si>
+    <t>10303.60</t>
+  </si>
+  <si>
+    <t>3710.18</t>
+  </si>
+  <si>
+    <t>17610.30</t>
+  </si>
+  <si>
+    <t>17265.40</t>
+  </si>
+  <si>
+    <t>4082.72</t>
+  </si>
+  <si>
+    <t>19479.80</t>
+  </si>
+  <si>
+    <t>17056.20</t>
+  </si>
+  <si>
+    <t>10591.70</t>
+  </si>
+  <si>
+    <t>4398.09</t>
+  </si>
+  <si>
+    <t>17509.20</t>
+  </si>
+  <si>
+    <t>12679.50</t>
+  </si>
+  <si>
+    <t>7641.70</t>
+  </si>
+  <si>
+    <t>4480.76</t>
+  </si>
+  <si>
+    <t>17603.10</t>
+  </si>
+  <si>
+    <t>10368.00</t>
+  </si>
+  <si>
+    <t>7142.50</t>
+  </si>
+  <si>
+    <t>5499.75</t>
+  </si>
+  <si>
+    <t>19147.70</t>
+  </si>
+  <si>
+    <t>7707.00</t>
+  </si>
+  <si>
+    <t>5374.99</t>
+  </si>
+  <si>
+    <t>22383.70</t>
+  </si>
+  <si>
+    <t>6718.80</t>
+  </si>
+  <si>
+    <t>4386.80</t>
+  </si>
+  <si>
+    <t>24317.80</t>
+  </si>
+  <si>
+    <t>6583.10</t>
+  </si>
+  <si>
+    <t>4251.09</t>
+  </si>
+  <si>
+    <t>24599.40</t>
+  </si>
+  <si>
+    <t>6826.30</t>
+  </si>
+  <si>
+    <t>4494.30</t>
+  </si>
+  <si>
+    <t>21590.70</t>
+  </si>
+  <si>
+    <t>6758.90</t>
+  </si>
+  <si>
+    <t>4426.89</t>
+  </si>
+  <si>
+    <t>16887.70</t>
+  </si>
+  <si>
+    <t>7289.60</t>
+  </si>
+  <si>
+    <t>4957.60</t>
+  </si>
+  <si>
+    <t>12960.20</t>
+  </si>
+  <si>
+    <t>8610.70</t>
+  </si>
+  <si>
+    <t>5658.20</t>
+  </si>
+  <si>
+    <t>5264.05</t>
+  </si>
+  <si>
+    <t>13378.60</t>
+  </si>
+  <si>
+    <t>9930.10</t>
+  </si>
+  <si>
+    <t>6339.50</t>
+  </si>
+  <si>
+    <t>4997.32</t>
+  </si>
+  <si>
+    <t>13122.50</t>
+  </si>
+  <si>
+    <t>11621.10</t>
+  </si>
+  <si>
+    <t>4639.19</t>
+  </si>
+  <si>
+    <t>12430.50</t>
+  </si>
+  <si>
+    <t>5741.90</t>
+  </si>
+  <si>
+    <t>4574.09</t>
+  </si>
+  <si>
+    <t>13046.50</t>
+  </si>
+  <si>
+    <t>14033.00</t>
+  </si>
+  <si>
+    <t>6636.40</t>
+  </si>
+  <si>
+    <t>4200.59</t>
+  </si>
+  <si>
+    <t>12333.40</t>
+  </si>
+  <si>
+    <t>14796.10</t>
+  </si>
+  <si>
+    <t>6454.70</t>
+  </si>
+  <si>
+    <t>3850.98</t>
+  </si>
+  <si>
+    <t>11988.70</t>
+  </si>
+  <si>
+    <t>15757.40</t>
+  </si>
+  <si>
+    <t>6391.30</t>
+  </si>
+  <si>
+    <t>3699.26</t>
+  </si>
+  <si>
+    <t>11905.90</t>
+  </si>
+  <si>
+    <t>16349.10</t>
+  </si>
+  <si>
+    <t>6173.50</t>
+  </si>
+  <si>
+    <t>3500.84</t>
+  </si>
+  <si>
+    <t>11103.80</t>
+  </si>
+  <si>
+    <t>17326.30</t>
+  </si>
+  <si>
+    <t>5353.80</t>
+  </si>
+  <si>
+    <t>3200.73</t>
+  </si>
+  <si>
+    <t>11192.10</t>
+  </si>
+  <si>
+    <t>18028.70</t>
+  </si>
+  <si>
+    <t>5564.65</t>
+  </si>
+  <si>
+    <t>3170.90</t>
+  </si>
+  <si>
+    <t>11600.60</t>
+  </si>
+  <si>
+    <t>19156.40</t>
+  </si>
+  <si>
+    <t>5790.50</t>
+  </si>
+  <si>
+    <t>3200.82</t>
+  </si>
+  <si>
+    <t>12026.90</t>
+  </si>
+  <si>
+    <t>20039.50</t>
+  </si>
+  <si>
+    <t>5973.80</t>
+  </si>
+  <si>
+    <t>3200.78</t>
+  </si>
+  <si>
+    <t>11902.60</t>
+  </si>
+  <si>
+    <t>22099.70</t>
+  </si>
+  <si>
+    <t>5958.10</t>
+  </si>
+  <si>
+    <t>2866.87</t>
+  </si>
+  <si>
+    <t>11705.10</t>
+  </si>
+  <si>
+    <t>23098.70</t>
+  </si>
+  <si>
+    <t>5837.80</t>
+  </si>
+  <si>
+    <t>2843.04</t>
+  </si>
+  <si>
+    <t>11773.90</t>
+  </si>
+  <si>
+    <t>24236.40</t>
+  </si>
+  <si>
+    <t>6069.60</t>
+  </si>
+  <si>
+    <t>2730.74</t>
+  </si>
+  <si>
+    <t>11626.00</t>
+  </si>
+  <si>
+    <t>24792.60</t>
+  </si>
+  <si>
+    <t>6151.00</t>
+  </si>
+  <si>
+    <t>2700.84</t>
+  </si>
+  <si>
+    <t>11131.10</t>
+  </si>
+  <si>
+    <t>26617.10</t>
+  </si>
+  <si>
+    <t>6529.90</t>
+  </si>
+  <si>
+    <t>2499.82</t>
+  </si>
+  <si>
+    <t>10926.70</t>
+  </si>
+  <si>
+    <t>27087.90</t>
+  </si>
+  <si>
+    <t>6414.10</t>
+  </si>
+  <si>
+    <t>2416.63</t>
+  </si>
+  <si>
+    <t>10752.40</t>
+  </si>
+  <si>
+    <t>27556.10</t>
+  </si>
+  <si>
+    <t>6342.30</t>
+  </si>
+  <si>
+    <t>2416.58</t>
+  </si>
+  <si>
+    <t>10575.10</t>
+  </si>
+  <si>
+    <t>27986.70</t>
+  </si>
+  <si>
+    <t>6306.20</t>
+  </si>
+  <si>
+    <t>2304.98</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -18506,6 +19607,27 @@
   </si>
   <si>
     <t>3631.90</t>
+  </si>
+  <si>
+    <t>375248.85</t>
+  </si>
+  <si>
+    <t>557717.13</t>
+  </si>
+  <si>
+    <t>187644.27</t>
+  </si>
+  <si>
+    <t>15635.37</t>
+  </si>
+  <si>
+    <t>23238.21</t>
+  </si>
+  <si>
+    <t>7818.51</t>
+  </si>
+  <si>
+    <t>3750.37</t>
   </si>
 </sst>
 </file>
@@ -18954,7 +20076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1606"/>
+  <dimension ref="A1:Z1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -58990,7 +60112,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="1540" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1540" s="4" t="s">
         <v>5673</v>
       </c>
@@ -59042,1451 +60164,4036 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="1542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1542" s="3" t="s">
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1542" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1542" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1542" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1542" s="4" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E1542" s="4" t="s">
+        <v>6046</v>
+      </c>
+      <c r="F1542" s="4" t="s">
+        <v>6047</v>
+      </c>
+      <c r="G1542" s="4" t="s">
+        <v>6047</v>
+      </c>
+      <c r="H1542" s="4" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1543" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1543" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1543" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1543" s="4" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E1543" s="4" t="s">
+        <v>6050</v>
+      </c>
+      <c r="F1543" s="4" t="s">
+        <v>6051</v>
+      </c>
+      <c r="G1543" s="4" t="s">
+        <v>6051</v>
+      </c>
+      <c r="H1543" s="4" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1544" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1544" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1544" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1544" s="4" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E1544" s="4" t="s">
+        <v>6054</v>
+      </c>
+      <c r="F1544" s="4" t="s">
+        <v>6055</v>
+      </c>
+      <c r="G1544" s="4" t="s">
+        <v>6055</v>
+      </c>
+      <c r="H1544" s="4" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1545" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1545" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1545" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1545" s="4" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E1545" s="4" t="s">
+        <v>6058</v>
+      </c>
+      <c r="F1545" s="4" t="s">
+        <v>6059</v>
+      </c>
+      <c r="G1545" s="4" t="s">
+        <v>6059</v>
+      </c>
+      <c r="H1545" s="4" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1546" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1546" s="4">
         <v>2</v>
       </c>
-      <c r="B1542" s="3" t="s">
+      <c r="C1546" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1546" s="4" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E1546" s="4" t="s">
+        <v>6062</v>
+      </c>
+      <c r="F1546" s="4" t="s">
+        <v>6063</v>
+      </c>
+      <c r="G1546" s="4" t="s">
+        <v>6063</v>
+      </c>
+      <c r="H1546" s="4" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1547" s="4" t="s">
         <v>6044</v>
       </c>
-      <c r="C1542" s="3" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D1542" s="3" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E1542" s="3" t="s">
-        <v>6047</v>
-      </c>
-      <c r="F1542" s="3" t="s">
-        <v>6048</v>
-      </c>
-      <c r="G1542" s="3" t="s">
+      <c r="B1547" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1547" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1547" s="4" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E1547" s="4" t="s">
+        <v>6066</v>
+      </c>
+      <c r="F1547" s="4" t="s">
+        <v>6067</v>
+      </c>
+      <c r="G1547" s="4" t="s">
+        <v>6067</v>
+      </c>
+      <c r="H1547" s="4" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1548" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1548" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1548" s="4" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E1548" s="4" t="s">
+        <v>6069</v>
+      </c>
+      <c r="F1548" s="4" t="s">
+        <v>6070</v>
+      </c>
+      <c r="G1548" s="4" t="s">
+        <v>6070</v>
+      </c>
+      <c r="H1548" s="4" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1549" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1549" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1549" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1549" s="4" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E1549" s="4" t="s">
+        <v>6073</v>
+      </c>
+      <c r="F1549" s="4" t="s">
+        <v>6074</v>
+      </c>
+      <c r="G1549" s="4" t="s">
+        <v>6074</v>
+      </c>
+      <c r="H1549" s="4" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1550" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1550" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1550" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1550" s="4" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E1550" s="4" t="s">
+        <v>6077</v>
+      </c>
+      <c r="F1550" s="4" t="s">
+        <v>6078</v>
+      </c>
+      <c r="G1550" s="4" t="s">
+        <v>6078</v>
+      </c>
+      <c r="H1550" s="4" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1551" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1551" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1551" s="4" t="s">
+        <v>4228</v>
+      </c>
+      <c r="E1551" s="4" t="s">
+        <v>6080</v>
+      </c>
+      <c r="F1551" s="4" t="s">
+        <v>6081</v>
+      </c>
+      <c r="G1551" s="4" t="s">
+        <v>6081</v>
+      </c>
+      <c r="H1551" s="4" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1552" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1552" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1552" s="4" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E1552" s="4" t="s">
+        <v>6084</v>
+      </c>
+      <c r="F1552" s="4" t="s">
+        <v>6085</v>
+      </c>
+      <c r="G1552" s="4" t="s">
+        <v>6085</v>
+      </c>
+      <c r="H1552" s="4" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1553" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1553" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1553" s="4" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E1553" s="4" t="s">
+        <v>6088</v>
+      </c>
+      <c r="F1553" s="4" t="s">
+        <v>6089</v>
+      </c>
+      <c r="G1553" s="4" t="s">
+        <v>6089</v>
+      </c>
+      <c r="H1553" s="4" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1554" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1554" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1554" s="4" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E1554" s="4" t="s">
+        <v>6092</v>
+      </c>
+      <c r="F1554" s="4" t="s">
+        <v>6093</v>
+      </c>
+      <c r="G1554" s="4" t="s">
+        <v>6093</v>
+      </c>
+      <c r="H1554" s="4" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1555" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1555" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1555" s="4" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E1555" s="4" t="s">
+        <v>6096</v>
+      </c>
+      <c r="F1555" s="4" t="s">
+        <v>6097</v>
+      </c>
+      <c r="G1555" s="4" t="s">
+        <v>6097</v>
+      </c>
+      <c r="H1555" s="4" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1556" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1556" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1556" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1556" s="4" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E1556" s="4" t="s">
+        <v>6100</v>
+      </c>
+      <c r="F1556" s="4" t="s">
+        <v>6101</v>
+      </c>
+      <c r="G1556" s="4" t="s">
+        <v>6101</v>
+      </c>
+      <c r="H1556" s="4" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1557" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1557" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1557" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1557" s="4" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E1557" s="4" t="s">
+        <v>6104</v>
+      </c>
+      <c r="F1557" s="4" t="s">
+        <v>6105</v>
+      </c>
+      <c r="G1557" s="4" t="s">
+        <v>6105</v>
+      </c>
+      <c r="H1557" s="4" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1558" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1558" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1558" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1558" s="4" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E1558" s="4" t="s">
+        <v>6107</v>
+      </c>
+      <c r="F1558" s="4" t="s">
+        <v>6108</v>
+      </c>
+      <c r="G1558" s="4" t="s">
+        <v>6108</v>
+      </c>
+      <c r="H1558" s="4" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1559" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1559" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1559" s="4" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E1559" s="4" t="s">
+        <v>6111</v>
+      </c>
+      <c r="F1559" s="4" t="s">
+        <v>6112</v>
+      </c>
+      <c r="G1559" s="4" t="s">
+        <v>6112</v>
+      </c>
+      <c r="H1559" s="4" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1560" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1560" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1560" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1560" s="4" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E1560" s="4" t="s">
+        <v>6115</v>
+      </c>
+      <c r="F1560" s="4" t="s">
+        <v>6116</v>
+      </c>
+      <c r="G1560" s="4" t="s">
+        <v>6116</v>
+      </c>
+      <c r="H1560" s="4" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1561" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1561" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1561" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1561" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E1561" s="4" t="s">
+        <v>6118</v>
+      </c>
+      <c r="F1561" s="4" t="s">
+        <v>6119</v>
+      </c>
+      <c r="G1561" s="4" t="s">
+        <v>6119</v>
+      </c>
+      <c r="H1561" s="4" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1562" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1562" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1562" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1562" s="4" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E1562" s="4" t="s">
+        <v>6122</v>
+      </c>
+      <c r="F1562" s="4" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1562" s="4" t="s">
+        <v>6123</v>
+      </c>
+      <c r="H1562" s="4" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1563" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1563" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1563" s="4" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E1563" s="4" t="s">
+        <v>6126</v>
+      </c>
+      <c r="F1563" s="4" t="s">
+        <v>6127</v>
+      </c>
+      <c r="G1563" s="4" t="s">
+        <v>6127</v>
+      </c>
+      <c r="H1563" s="4" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1564" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1564" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1564" s="4" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E1564" s="4" t="s">
+        <v>6130</v>
+      </c>
+      <c r="F1564" s="4" t="s">
+        <v>6131</v>
+      </c>
+      <c r="G1564" s="4" t="s">
+        <v>6131</v>
+      </c>
+      <c r="H1564" s="4" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1565" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1565" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1565" s="4" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E1565" s="4" t="s">
+        <v>6134</v>
+      </c>
+      <c r="F1565" s="4" t="s">
+        <v>6135</v>
+      </c>
+      <c r="G1565" s="4" t="s">
+        <v>6135</v>
+      </c>
+      <c r="H1565" s="4" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1566" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1566" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1566" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1566" s="4" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E1566" s="4" t="s">
+        <v>6138</v>
+      </c>
+      <c r="F1566" s="4" t="s">
+        <v>6139</v>
+      </c>
+      <c r="G1566" s="4" t="s">
+        <v>6139</v>
+      </c>
+      <c r="H1566" s="4" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1567" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1567" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1567" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1567" s="4" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E1567" s="4" t="s">
+        <v>6142</v>
+      </c>
+      <c r="F1567" s="4" t="s">
+        <v>6143</v>
+      </c>
+      <c r="G1567" s="4" t="s">
+        <v>6143</v>
+      </c>
+      <c r="H1567" s="4" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1568" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1568" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1568" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1568" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E1568" s="4" t="s">
+        <v>6145</v>
+      </c>
+      <c r="F1568" s="4" t="s">
+        <v>6146</v>
+      </c>
+      <c r="G1568" s="4" t="s">
+        <v>6146</v>
+      </c>
+      <c r="H1568" s="4" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1569" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1569" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1569" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1569" s="4" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E1569" s="4" t="s">
+        <v>6149</v>
+      </c>
+      <c r="F1569" s="4" t="s">
+        <v>6150</v>
+      </c>
+      <c r="G1569" s="4" t="s">
+        <v>6150</v>
+      </c>
+      <c r="H1569" s="4" t="s">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1570" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1570" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1570" s="4" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E1570" s="4" t="s">
+        <v>6153</v>
+      </c>
+      <c r="F1570" s="4" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1570" s="4" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1570" s="4" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1571" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1571" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1571" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1571" s="4" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E1571" s="4" t="s">
+        <v>6157</v>
+      </c>
+      <c r="F1571" s="4" t="s">
+        <v>6158</v>
+      </c>
+      <c r="G1571" s="4" t="s">
+        <v>6158</v>
+      </c>
+      <c r="H1571" s="4" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1572" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1572" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1572" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1572" s="4" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E1572" s="4" t="s">
+        <v>6161</v>
+      </c>
+      <c r="F1572" s="4" t="s">
+        <v>6162</v>
+      </c>
+      <c r="G1572" s="4" t="s">
+        <v>6162</v>
+      </c>
+      <c r="H1572" s="4" t="s">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1573" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1573" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1573" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1573" s="4" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E1573" s="4" t="s">
+        <v>6165</v>
+      </c>
+      <c r="F1573" s="4" t="s">
+        <v>6166</v>
+      </c>
+      <c r="G1573" s="4" t="s">
+        <v>6166</v>
+      </c>
+      <c r="H1573" s="4" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1574" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1574" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="1543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1543" s="4" t="s">
+      <c r="C1574" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1574" s="4" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E1574" s="4" t="s">
+        <v>6169</v>
+      </c>
+      <c r="F1574" s="4" t="s">
+        <v>6170</v>
+      </c>
+      <c r="G1574" s="4" t="s">
+        <v>6170</v>
+      </c>
+      <c r="H1574" s="4" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1575" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1575" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1575" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1575" s="4" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E1575" s="4" t="s">
+        <v>6173</v>
+      </c>
+      <c r="F1575" s="4" t="s">
+        <v>6174</v>
+      </c>
+      <c r="G1575" s="4" t="s">
+        <v>6174</v>
+      </c>
+      <c r="H1575" s="4" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1576" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1576" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1576" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1576" s="4" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E1576" s="4" t="s">
+        <v>6177</v>
+      </c>
+      <c r="F1576" s="4" t="s">
+        <v>6178</v>
+      </c>
+      <c r="G1576" s="4" t="s">
+        <v>6178</v>
+      </c>
+      <c r="H1576" s="4" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1577" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1577" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1577" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1577" s="4" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E1577" s="4" t="s">
+        <v>6181</v>
+      </c>
+      <c r="F1577" s="4" t="s">
+        <v>6182</v>
+      </c>
+      <c r="G1577" s="4" t="s">
+        <v>6182</v>
+      </c>
+      <c r="H1577" s="4" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1578" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1578" s="4">
         <v>10</v>
       </c>
-      <c r="B1543" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1543" s="4" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D1543" s="4" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E1543" s="4" t="s">
-        <v>6052</v>
-      </c>
-      <c r="F1543" s="4" t="s">
-        <v>6052</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1544" s="4" t="s">
+      <c r="C1578" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1578" s="4" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E1578" s="4" t="s">
+        <v>6185</v>
+      </c>
+      <c r="F1578" s="4" t="s">
+        <v>6186</v>
+      </c>
+      <c r="G1578" s="4" t="s">
+        <v>6186</v>
+      </c>
+      <c r="H1578" s="4" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1579" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1579" s="4">
         <v>10</v>
       </c>
-      <c r="B1544" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1544" s="4" t="s">
+      <c r="C1579" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1579" s="4" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E1579" s="4" t="s">
+        <v>6189</v>
+      </c>
+      <c r="F1579" s="4" t="s">
+        <v>6190</v>
+      </c>
+      <c r="G1579" s="4" t="s">
+        <v>6190</v>
+      </c>
+      <c r="H1579" s="4" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1580" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1580" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1580" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1580" s="4" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E1580" s="4" t="s">
+        <v>6193</v>
+      </c>
+      <c r="F1580" s="4" t="s">
+        <v>6194</v>
+      </c>
+      <c r="G1580" s="4" t="s">
+        <v>6194</v>
+      </c>
+      <c r="H1580" s="4" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1581" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1581" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1581" s="4" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E1581" s="4" t="s">
+        <v>6197</v>
+      </c>
+      <c r="F1581" s="4" t="s">
+        <v>6198</v>
+      </c>
+      <c r="G1581" s="4" t="s">
+        <v>6198</v>
+      </c>
+      <c r="H1581" s="4" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1582" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1582" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1582" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1582" s="4" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E1582" s="4" t="s">
+        <v>6201</v>
+      </c>
+      <c r="F1582" s="4" t="s">
+        <v>6202</v>
+      </c>
+      <c r="G1582" s="4" t="s">
+        <v>6202</v>
+      </c>
+      <c r="H1582" s="4" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1583" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1583" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1583" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1583" s="4" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E1583" s="4" t="s">
+        <v>6205</v>
+      </c>
+      <c r="F1583" s="4" t="s">
+        <v>6206</v>
+      </c>
+      <c r="G1583" s="4" t="s">
+        <v>6206</v>
+      </c>
+      <c r="H1583" s="4" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1584" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1584" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1584" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1584" s="4" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E1584" s="4" t="s">
+        <v>6209</v>
+      </c>
+      <c r="F1584" s="4" t="s">
+        <v>6210</v>
+      </c>
+      <c r="G1584" s="4" t="s">
+        <v>6210</v>
+      </c>
+      <c r="H1584" s="4" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1585" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1585" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1585" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1585" s="4" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E1585" s="4" t="s">
+        <v>6213</v>
+      </c>
+      <c r="F1585" s="4" t="s">
+        <v>6214</v>
+      </c>
+      <c r="G1585" s="4" t="s">
+        <v>6214</v>
+      </c>
+      <c r="H1585" s="4" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1586" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1586" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1586" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1586" s="4" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E1586" s="4" t="s">
+        <v>6217</v>
+      </c>
+      <c r="F1586" s="4" t="s">
+        <v>6218</v>
+      </c>
+      <c r="G1586" s="4" t="s">
+        <v>6218</v>
+      </c>
+      <c r="H1586" s="4" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1587" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1587" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1587" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1587" s="4" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E1587" s="4" t="s">
+        <v>6221</v>
+      </c>
+      <c r="F1587" s="4" t="s">
+        <v>6222</v>
+      </c>
+      <c r="G1587" s="4" t="s">
+        <v>6222</v>
+      </c>
+      <c r="H1587" s="4" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1588" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1588" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1588" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1588" s="4" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E1588" s="4" t="s">
+        <v>6225</v>
+      </c>
+      <c r="F1588" s="4" t="s">
+        <v>6226</v>
+      </c>
+      <c r="G1588" s="4" t="s">
+        <v>6226</v>
+      </c>
+      <c r="H1588" s="4" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1589" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1589" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1589" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1589" s="4" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E1589" s="4" t="s">
+        <v>6228</v>
+      </c>
+      <c r="F1589" s="4" t="s">
+        <v>6229</v>
+      </c>
+      <c r="G1589" s="4" t="s">
+        <v>6229</v>
+      </c>
+      <c r="H1589" s="4" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1590" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1590" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1590" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1590" s="4" t="s">
+        <v>6231</v>
+      </c>
+      <c r="E1590" s="4" t="s">
+        <v>6232</v>
+      </c>
+      <c r="F1590" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G1590" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H1590" s="4" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1591" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1591" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1591" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1591" s="4" t="s">
+        <v>6234</v>
+      </c>
+      <c r="E1591" s="4" t="s">
+        <v>6235</v>
+      </c>
+      <c r="F1591" s="4" t="s">
+        <v>6236</v>
+      </c>
+      <c r="G1591" s="4" t="s">
+        <v>6236</v>
+      </c>
+      <c r="H1591" s="4" t="s">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1592" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1592" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1592" s="4" t="s">
+        <v>6238</v>
+      </c>
+      <c r="E1592" s="4" t="s">
+        <v>6239</v>
+      </c>
+      <c r="F1592" s="4" t="s">
+        <v>6240</v>
+      </c>
+      <c r="G1592" s="4" t="s">
+        <v>6240</v>
+      </c>
+      <c r="H1592" s="4" t="s">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1593" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1593" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1593" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1593" s="4" t="s">
+        <v>6242</v>
+      </c>
+      <c r="E1593" s="4" t="s">
+        <v>6243</v>
+      </c>
+      <c r="F1593" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="G1593" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="H1593" s="4" t="s">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1594" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1594" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1594" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1594" s="4" t="s">
+        <v>6245</v>
+      </c>
+      <c r="E1594" s="4" t="s">
+        <v>6246</v>
+      </c>
+      <c r="F1594" s="4" t="s">
+        <v>6247</v>
+      </c>
+      <c r="G1594" s="4" t="s">
+        <v>6247</v>
+      </c>
+      <c r="H1594" s="4" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1595" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1595" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1595" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1595" s="4" t="s">
+        <v>6249</v>
+      </c>
+      <c r="E1595" s="4" t="s">
+        <v>6250</v>
+      </c>
+      <c r="F1595" s="4" t="s">
+        <v>6251</v>
+      </c>
+      <c r="G1595" s="4" t="s">
+        <v>6251</v>
+      </c>
+      <c r="H1595" s="4" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1596" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1596" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1596" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1596" s="4" t="s">
+        <v>6253</v>
+      </c>
+      <c r="E1596" s="4" t="s">
+        <v>6254</v>
+      </c>
+      <c r="F1596" s="4" t="s">
+        <v>6255</v>
+      </c>
+      <c r="G1596" s="4" t="s">
+        <v>6255</v>
+      </c>
+      <c r="H1596" s="4" t="s">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1597" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1597" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1597" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1597" s="4" t="s">
+        <v>6257</v>
+      </c>
+      <c r="E1597" s="4" t="s">
+        <v>6258</v>
+      </c>
+      <c r="F1597" s="4" t="s">
+        <v>6259</v>
+      </c>
+      <c r="G1597" s="4" t="s">
+        <v>6259</v>
+      </c>
+      <c r="H1597" s="4" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1598" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1598" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1598" s="4" t="s">
+        <v>6261</v>
+      </c>
+      <c r="E1598" s="4" t="s">
+        <v>6262</v>
+      </c>
+      <c r="F1598" s="4" t="s">
+        <v>6263</v>
+      </c>
+      <c r="G1598" s="4" t="s">
+        <v>6263</v>
+      </c>
+      <c r="H1598" s="4" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1599" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1599" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1599" s="4" t="s">
+        <v>6265</v>
+      </c>
+      <c r="E1599" s="4" t="s">
+        <v>6266</v>
+      </c>
+      <c r="F1599" s="4" t="s">
+        <v>6267</v>
+      </c>
+      <c r="G1599" s="4" t="s">
+        <v>6267</v>
+      </c>
+      <c r="H1599" s="4" t="s">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1600" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1600" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1600" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1600" s="4" t="s">
+        <v>6269</v>
+      </c>
+      <c r="E1600" s="4" t="s">
+        <v>6270</v>
+      </c>
+      <c r="F1600" s="4" t="s">
+        <v>6271</v>
+      </c>
+      <c r="G1600" s="4" t="s">
+        <v>6271</v>
+      </c>
+      <c r="H1600" s="4" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1601" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1601" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1601" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1601" s="4" t="s">
+        <v>6272</v>
+      </c>
+      <c r="E1601" s="4" t="s">
+        <v>6273</v>
+      </c>
+      <c r="F1601" s="4" t="s">
+        <v>6274</v>
+      </c>
+      <c r="G1601" s="4" t="s">
+        <v>6274</v>
+      </c>
+      <c r="H1601" s="4" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1602" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1602" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1602" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1602" s="4" t="s">
+        <v>6276</v>
+      </c>
+      <c r="E1602" s="4" t="s">
+        <v>6277</v>
+      </c>
+      <c r="F1602" s="4" t="s">
+        <v>6278</v>
+      </c>
+      <c r="G1602" s="4" t="s">
+        <v>6278</v>
+      </c>
+      <c r="H1602" s="4" t="s">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1603" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1603" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1603" s="4" t="s">
+        <v>6280</v>
+      </c>
+      <c r="E1603" s="4" t="s">
+        <v>6281</v>
+      </c>
+      <c r="F1603" s="4" t="s">
+        <v>6282</v>
+      </c>
+      <c r="G1603" s="4" t="s">
+        <v>6282</v>
+      </c>
+      <c r="H1603" s="4" t="s">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1604" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1604" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1604" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1604" s="4" t="s">
+        <v>6284</v>
+      </c>
+      <c r="E1604" s="4" t="s">
+        <v>6285</v>
+      </c>
+      <c r="F1604" s="4" t="s">
+        <v>6286</v>
+      </c>
+      <c r="G1604" s="4" t="s">
+        <v>6286</v>
+      </c>
+      <c r="H1604" s="4" t="s">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1605" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1605" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1605" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1605" s="4" t="s">
+        <v>6288</v>
+      </c>
+      <c r="E1605" s="4" t="s">
+        <v>6289</v>
+      </c>
+      <c r="F1605" s="4" t="s">
+        <v>6290</v>
+      </c>
+      <c r="G1605" s="4" t="s">
+        <v>6290</v>
+      </c>
+      <c r="H1605" s="4" t="s">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1606" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1606" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1606" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1606" s="4" t="s">
+        <v>6292</v>
+      </c>
+      <c r="E1606" s="4" t="s">
+        <v>6293</v>
+      </c>
+      <c r="F1606" s="4" t="s">
+        <v>6294</v>
+      </c>
+      <c r="G1606" s="4" t="s">
+        <v>6294</v>
+      </c>
+      <c r="H1606" s="4" t="s">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1607" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1607" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1607" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1607" s="4" t="s">
+        <v>6296</v>
+      </c>
+      <c r="E1607" s="4" t="s">
+        <v>6297</v>
+      </c>
+      <c r="F1607" s="4" t="s">
+        <v>6298</v>
+      </c>
+      <c r="G1607" s="4" t="s">
+        <v>6298</v>
+      </c>
+      <c r="H1607" s="4" t="s">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1608" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1608" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1608" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1608" s="4" t="s">
+        <v>6300</v>
+      </c>
+      <c r="E1608" s="4" t="s">
+        <v>6301</v>
+      </c>
+      <c r="F1608" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="G1608" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="H1608" s="4" t="s">
+        <v>6302</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1609" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1609" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1609" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1609" s="4" t="s">
+        <v>6303</v>
+      </c>
+      <c r="E1609" s="4" t="s">
+        <v>6304</v>
+      </c>
+      <c r="F1609" s="4" t="s">
+        <v>6305</v>
+      </c>
+      <c r="G1609" s="4" t="s">
+        <v>6305</v>
+      </c>
+      <c r="H1609" s="4" t="s">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1610" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1610" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1610" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1610" s="4" t="s">
+        <v>6307</v>
+      </c>
+      <c r="E1610" s="4" t="s">
+        <v>6308</v>
+      </c>
+      <c r="F1610" s="4" t="s">
+        <v>6309</v>
+      </c>
+      <c r="G1610" s="4" t="s">
+        <v>6309</v>
+      </c>
+      <c r="H1610" s="4" t="s">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1611" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1611" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1611" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1611" s="4" t="s">
+        <v>6311</v>
+      </c>
+      <c r="E1611" s="4" t="s">
+        <v>6312</v>
+      </c>
+      <c r="F1611" s="4" t="s">
+        <v>6313</v>
+      </c>
+      <c r="G1611" s="4" t="s">
+        <v>6313</v>
+      </c>
+      <c r="H1611" s="4" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1612" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1612" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1612" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1612" s="4" t="s">
+        <v>6315</v>
+      </c>
+      <c r="E1612" s="4" t="s">
+        <v>6316</v>
+      </c>
+      <c r="F1612" s="4" t="s">
+        <v>6317</v>
+      </c>
+      <c r="G1612" s="4" t="s">
+        <v>6317</v>
+      </c>
+      <c r="H1612" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1613" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1613" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1613" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1613" s="4" t="s">
+        <v>6318</v>
+      </c>
+      <c r="E1613" s="4" t="s">
+        <v>6319</v>
+      </c>
+      <c r="F1613" s="4" t="s">
+        <v>6320</v>
+      </c>
+      <c r="G1613" s="4" t="s">
+        <v>6320</v>
+      </c>
+      <c r="H1613" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1614" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1614" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1614" s="4" t="s">
+        <v>6321</v>
+      </c>
+      <c r="E1614" s="4" t="s">
+        <v>6322</v>
+      </c>
+      <c r="F1614" s="4" t="s">
+        <v>6323</v>
+      </c>
+      <c r="G1614" s="4" t="s">
+        <v>6323</v>
+      </c>
+      <c r="H1614" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1615" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1615" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1615" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1615" s="4" t="s">
+        <v>6324</v>
+      </c>
+      <c r="E1615" s="4" t="s">
+        <v>6325</v>
+      </c>
+      <c r="F1615" s="4" t="s">
+        <v>6326</v>
+      </c>
+      <c r="G1615" s="4" t="s">
+        <v>6326</v>
+      </c>
+      <c r="H1615" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1616" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1616" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1616" s="4" t="s">
+        <v>6327</v>
+      </c>
+      <c r="E1616" s="4" t="s">
+        <v>6328</v>
+      </c>
+      <c r="F1616" s="4" t="s">
+        <v>6329</v>
+      </c>
+      <c r="G1616" s="4" t="s">
+        <v>6329</v>
+      </c>
+      <c r="H1616" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1617" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1617" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1617" s="4" t="s">
+        <v>6330</v>
+      </c>
+      <c r="E1617" s="4" t="s">
+        <v>6331</v>
+      </c>
+      <c r="F1617" s="4" t="s">
+        <v>6332</v>
+      </c>
+      <c r="G1617" s="4" t="s">
+        <v>6332</v>
+      </c>
+      <c r="H1617" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1618" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1618" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1618" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1618" s="4" t="s">
+        <v>6333</v>
+      </c>
+      <c r="E1618" s="4" t="s">
+        <v>6334</v>
+      </c>
+      <c r="F1618" s="4" t="s">
+        <v>6335</v>
+      </c>
+      <c r="G1618" s="4" t="s">
+        <v>6335</v>
+      </c>
+      <c r="H1618" s="4" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1619" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1619" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1619" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1619" s="4" t="s">
+        <v>6337</v>
+      </c>
+      <c r="E1619" s="4" t="s">
+        <v>6338</v>
+      </c>
+      <c r="F1619" s="4" t="s">
+        <v>6339</v>
+      </c>
+      <c r="G1619" s="4" t="s">
+        <v>6339</v>
+      </c>
+      <c r="H1619" s="4" t="s">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1620" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1620" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1620" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1620" s="4" t="s">
+        <v>6341</v>
+      </c>
+      <c r="E1620" s="4" t="s">
+        <v>6342</v>
+      </c>
+      <c r="F1620" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G1620" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="H1620" s="4" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1621" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1621" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1621" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1621" s="4" t="s">
+        <v>6344</v>
+      </c>
+      <c r="E1621" s="4" t="s">
+        <v>4898</v>
+      </c>
+      <c r="F1621" s="4" t="s">
+        <v>6345</v>
+      </c>
+      <c r="G1621" s="4" t="s">
+        <v>6345</v>
+      </c>
+      <c r="H1621" s="4" t="s">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1622" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1622" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1622" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1622" s="4" t="s">
+        <v>6347</v>
+      </c>
+      <c r="E1622" s="4" t="s">
+        <v>6348</v>
+      </c>
+      <c r="F1622" s="4" t="s">
+        <v>6349</v>
+      </c>
+      <c r="G1622" s="4" t="s">
+        <v>6349</v>
+      </c>
+      <c r="H1622" s="4" t="s">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1623" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1623" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1623" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1623" s="4" t="s">
+        <v>6351</v>
+      </c>
+      <c r="E1623" s="4" t="s">
+        <v>6352</v>
+      </c>
+      <c r="F1623" s="4" t="s">
+        <v>6353</v>
+      </c>
+      <c r="G1623" s="4" t="s">
+        <v>6353</v>
+      </c>
+      <c r="H1623" s="4" t="s">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1624" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1624" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1624" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1624" s="4" t="s">
+        <v>6355</v>
+      </c>
+      <c r="E1624" s="4" t="s">
+        <v>6356</v>
+      </c>
+      <c r="F1624" s="4" t="s">
+        <v>6357</v>
+      </c>
+      <c r="G1624" s="4" t="s">
+        <v>6357</v>
+      </c>
+      <c r="H1624" s="4" t="s">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1625" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1625" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1625" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1625" s="4" t="s">
+        <v>6359</v>
+      </c>
+      <c r="E1625" s="4" t="s">
+        <v>6360</v>
+      </c>
+      <c r="F1625" s="4" t="s">
+        <v>6361</v>
+      </c>
+      <c r="G1625" s="4" t="s">
+        <v>6361</v>
+      </c>
+      <c r="H1625" s="4" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1626" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1626" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1626" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1626" s="4" t="s">
+        <v>6363</v>
+      </c>
+      <c r="E1626" s="4" t="s">
+        <v>6364</v>
+      </c>
+      <c r="F1626" s="4" t="s">
+        <v>6365</v>
+      </c>
+      <c r="G1626" s="4" t="s">
+        <v>6365</v>
+      </c>
+      <c r="H1626" s="4" t="s">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1627" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1627" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1627" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1627" s="4" t="s">
+        <v>6367</v>
+      </c>
+      <c r="E1627" s="4" t="s">
+        <v>6368</v>
+      </c>
+      <c r="F1627" s="4" t="s">
+        <v>6369</v>
+      </c>
+      <c r="G1627" s="4" t="s">
+        <v>6369</v>
+      </c>
+      <c r="H1627" s="4" t="s">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1628" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1628" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1628" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1628" s="4" t="s">
+        <v>6371</v>
+      </c>
+      <c r="E1628" s="4" t="s">
+        <v>6372</v>
+      </c>
+      <c r="F1628" s="4" t="s">
+        <v>6373</v>
+      </c>
+      <c r="G1628" s="4" t="s">
+        <v>6373</v>
+      </c>
+      <c r="H1628" s="4" t="s">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1629" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1629" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1629" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1629" s="4" t="s">
+        <v>6375</v>
+      </c>
+      <c r="E1629" s="4" t="s">
+        <v>6376</v>
+      </c>
+      <c r="F1629" s="4" t="s">
+        <v>6377</v>
+      </c>
+      <c r="G1629" s="4" t="s">
+        <v>6377</v>
+      </c>
+      <c r="H1629" s="4" t="s">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1630" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1630" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1630" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1630" s="4" t="s">
+        <v>6379</v>
+      </c>
+      <c r="E1630" s="4" t="s">
+        <v>6380</v>
+      </c>
+      <c r="F1630" s="4" t="s">
+        <v>6381</v>
+      </c>
+      <c r="G1630" s="4" t="s">
+        <v>6381</v>
+      </c>
+      <c r="H1630" s="4" t="s">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1631" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1631" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1631" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1631" s="4" t="s">
+        <v>6383</v>
+      </c>
+      <c r="E1631" s="4" t="s">
+        <v>6384</v>
+      </c>
+      <c r="F1631" s="4" t="s">
+        <v>6385</v>
+      </c>
+      <c r="G1631" s="4" t="s">
+        <v>6385</v>
+      </c>
+      <c r="H1631" s="4" t="s">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1632" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1632" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1632" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1632" s="4" t="s">
+        <v>6387</v>
+      </c>
+      <c r="E1632" s="4" t="s">
+        <v>6388</v>
+      </c>
+      <c r="F1632" s="4" t="s">
+        <v>6389</v>
+      </c>
+      <c r="G1632" s="4" t="s">
+        <v>6389</v>
+      </c>
+      <c r="H1632" s="4" t="s">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1633" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1633" s="4">
+        <v>23</v>
+      </c>
+      <c r="C1633" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1633" s="4" t="s">
+        <v>6391</v>
+      </c>
+      <c r="E1633" s="4" t="s">
+        <v>6392</v>
+      </c>
+      <c r="F1633" s="4" t="s">
+        <v>6393</v>
+      </c>
+      <c r="G1633" s="4" t="s">
+        <v>6393</v>
+      </c>
+      <c r="H1633" s="4" t="s">
+        <v>6394</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1634" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1634" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1634" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1634" s="4" t="s">
+        <v>6395</v>
+      </c>
+      <c r="E1634" s="4" t="s">
+        <v>6396</v>
+      </c>
+      <c r="F1634" s="4" t="s">
+        <v>6397</v>
+      </c>
+      <c r="G1634" s="4" t="s">
+        <v>6397</v>
+      </c>
+      <c r="H1634" s="4" t="s">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1635" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1635" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1635" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1635" s="4" t="s">
+        <v>6399</v>
+      </c>
+      <c r="E1635" s="4" t="s">
+        <v>6400</v>
+      </c>
+      <c r="F1635" s="4" t="s">
+        <v>6401</v>
+      </c>
+      <c r="G1635" s="4" t="s">
+        <v>6401</v>
+      </c>
+      <c r="H1635" s="4" t="s">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="1636" ht="20" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1636" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1636" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1636" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1636" s="4" t="s">
+        <v>6403</v>
+      </c>
+      <c r="E1636" s="4" t="s">
+        <v>6404</v>
+      </c>
+      <c r="F1636" s="4" t="s">
+        <v>6405</v>
+      </c>
+      <c r="G1636" s="4" t="s">
+        <v>6405</v>
+      </c>
+      <c r="H1636" s="4" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1637" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1637" s="4">
+        <v>24</v>
+      </c>
+      <c r="C1637" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1637" s="4" t="s">
+        <v>6407</v>
+      </c>
+      <c r="E1637" s="4" t="s">
+        <v>6408</v>
+      </c>
+      <c r="F1637" s="4" t="s">
+        <v>6409</v>
+      </c>
+      <c r="G1637" s="4" t="s">
+        <v>6409</v>
+      </c>
+      <c r="H1637" s="4" t="s">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1638" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1638" s="3" t="s">
+        <v>6411</v>
+      </c>
+      <c r="C1638" s="3" t="s">
+        <v>6412</v>
+      </c>
+      <c r="D1638" s="3" t="s">
+        <v>6413</v>
+      </c>
+      <c r="E1638" s="3" t="s">
+        <v>6414</v>
+      </c>
+      <c r="F1638" s="3" t="s">
+        <v>6415</v>
+      </c>
+      <c r="G1638" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1639" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1639" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1639" s="4" t="s">
+        <v>6417</v>
+      </c>
+      <c r="D1639" s="4" t="s">
+        <v>6418</v>
+      </c>
+      <c r="E1639" s="4" t="s">
+        <v>6419</v>
+      </c>
+      <c r="F1639" s="4" t="s">
+        <v>6419</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1640" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1640" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1640" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D1544" s="4" t="s">
+      <c r="D1640" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E1544" s="4" t="s">
+      <c r="E1640" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F1544" s="4" t="s">
+      <c r="F1640" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G1544" s="4" t="s">
+      <c r="G1640" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1545" s="4" t="s">
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1641" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1545" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1545" s="4" t="s">
+      <c r="B1641" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1641" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1545" s="4" t="s">
+      <c r="D1641" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E1545" s="4" t="s">
+      <c r="E1641" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F1545" s="4" t="s">
+      <c r="F1641" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G1545" s="4" t="s">
+      <c r="G1641" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1546" s="4" t="s">
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1642" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1546" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1546" s="4" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D1546" s="4" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E1546" s="4" t="s">
-        <v>6058</v>
-      </c>
-      <c r="F1546" s="4" t="s">
-        <v>6058</v>
-      </c>
-      <c r="G1546" s="4" t="s">
-        <v>6059</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1547" s="4" t="s">
+      <c r="B1642" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1642" s="4" t="s">
+        <v>6423</v>
+      </c>
+      <c r="D1642" s="4" t="s">
+        <v>6424</v>
+      </c>
+      <c r="E1642" s="4" t="s">
+        <v>6425</v>
+      </c>
+      <c r="F1642" s="4" t="s">
+        <v>6425</v>
+      </c>
+      <c r="G1642" s="4" t="s">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1643" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1547" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1547" s="4" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D1547" s="4" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E1547" s="4" t="s">
-        <v>6062</v>
-      </c>
-      <c r="F1547" s="4" t="s">
-        <v>6062</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1548" s="4" t="s">
+      <c r="B1643" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1643" s="4" t="s">
+        <v>6427</v>
+      </c>
+      <c r="D1643" s="4" t="s">
+        <v>6428</v>
+      </c>
+      <c r="E1643" s="4" t="s">
+        <v>6429</v>
+      </c>
+      <c r="F1643" s="4" t="s">
+        <v>6429</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1644" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1548" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1548" s="4" t="s">
+      <c r="B1644" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1644" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="D1548" s="4" t="s">
+      <c r="D1644" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E1548" s="4" t="s">
+      <c r="E1644" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F1548" s="4" t="s">
+      <c r="F1644" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="G1548" s="4" t="s">
+      <c r="G1644" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1549" s="4" t="s">
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1645" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1549" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1549" s="4" t="s">
+      <c r="B1645" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1645" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D1549" s="4" t="s">
+      <c r="D1645" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="E1549" s="4" t="s">
+      <c r="E1645" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F1549" s="4" t="s">
+      <c r="F1645" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G1549" s="4" t="s">
+      <c r="G1645" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="1550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1550" s="4" t="s">
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1646" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B1550" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1550" s="4" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D1550" s="4" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E1550" s="4" t="s">
-        <v>6065</v>
-      </c>
-      <c r="F1550" s="4" t="s">
-        <v>6065</v>
-      </c>
-      <c r="G1550" s="4" t="s">
-        <v>6066</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1551" s="4" t="s">
+      <c r="B1646" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1646" s="4" t="s">
+        <v>6430</v>
+      </c>
+      <c r="D1646" s="4" t="s">
+        <v>6431</v>
+      </c>
+      <c r="E1646" s="4" t="s">
+        <v>6432</v>
+      </c>
+      <c r="F1646" s="4" t="s">
+        <v>6432</v>
+      </c>
+      <c r="G1646" s="4" t="s">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1647" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1551" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1551" s="4" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D1551" s="4" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E1551" s="4" t="s">
-        <v>6069</v>
-      </c>
-      <c r="F1551" s="4" t="s">
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1552" s="4" t="s">
+      <c r="B1647" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1647" s="4" t="s">
+        <v>6434</v>
+      </c>
+      <c r="D1647" s="4" t="s">
+        <v>6435</v>
+      </c>
+      <c r="E1647" s="4" t="s">
+        <v>6436</v>
+      </c>
+      <c r="F1647" s="4" t="s">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1648" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1552" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1552" s="4" t="s">
+      <c r="B1648" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1648" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="D1552" s="4" t="s">
+      <c r="D1648" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="E1552" s="4" t="s">
+      <c r="E1648" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F1552" s="4" t="s">
+      <c r="F1648" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="G1552" s="4" t="s">
+      <c r="G1648" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1553" s="4" t="s">
+    <row r="1649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1649" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1553" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1553" s="4" t="s">
+      <c r="B1649" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1649" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="D1553" s="4" t="s">
+      <c r="D1649" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="E1553" s="4" t="s">
+      <c r="E1649" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="F1553" s="4" t="s">
+      <c r="F1649" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="G1553" s="4" t="s">
+      <c r="G1649" s="4" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1554" s="4" t="s">
+    <row r="1650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1650" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B1554" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1554" s="4" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D1554" s="4" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E1554" s="4" t="s">
-        <v>6072</v>
-      </c>
-      <c r="F1554" s="4" t="s">
-        <v>6072</v>
-      </c>
-      <c r="G1554" s="4" t="s">
-        <v>6073</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1555" s="4" t="s">
+      <c r="B1650" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1650" s="4" t="s">
+        <v>6437</v>
+      </c>
+      <c r="D1650" s="4" t="s">
+        <v>6438</v>
+      </c>
+      <c r="E1650" s="4" t="s">
+        <v>6439</v>
+      </c>
+      <c r="F1650" s="4" t="s">
+        <v>6439</v>
+      </c>
+      <c r="G1650" s="4" t="s">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1651" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1555" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1555" s="4" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D1555" s="4" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E1555" s="4" t="s">
-        <v>6076</v>
-      </c>
-      <c r="F1555" s="4" t="s">
-        <v>6076</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1556" s="4" t="s">
+      <c r="B1651" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1651" s="4" t="s">
+        <v>6441</v>
+      </c>
+      <c r="D1651" s="4" t="s">
+        <v>6442</v>
+      </c>
+      <c r="E1651" s="4" t="s">
+        <v>6443</v>
+      </c>
+      <c r="F1651" s="4" t="s">
+        <v>6443</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1652" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1556" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1556" s="4" t="s">
+      <c r="B1652" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1652" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="D1556" s="4" t="s">
+      <c r="D1652" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="E1556" s="4" t="s">
+      <c r="E1652" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="F1556" s="4" t="s">
+      <c r="F1652" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="G1556" s="4" t="s">
+      <c r="G1652" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1557" s="4" t="s">
+    <row r="1653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1653" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1557" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1557" s="4" t="s">
+      <c r="B1653" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1653" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="D1557" s="4" t="s">
+      <c r="D1653" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E1557" s="4" t="s">
+      <c r="E1653" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="F1557" s="4" t="s">
+      <c r="F1653" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="G1557" s="4" t="s">
+      <c r="G1653" s="4" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1558" s="4" t="s">
+    <row r="1654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1654" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B1558" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1558" s="4" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D1558" s="4" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E1558" s="4" t="s">
-        <v>6079</v>
-      </c>
-      <c r="F1558" s="4" t="s">
-        <v>6079</v>
-      </c>
-      <c r="G1558" s="4" t="s">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1559" s="4" t="s">
+      <c r="B1654" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1654" s="4" t="s">
+        <v>6444</v>
+      </c>
+      <c r="D1654" s="4" t="s">
+        <v>6445</v>
+      </c>
+      <c r="E1654" s="4" t="s">
+        <v>6446</v>
+      </c>
+      <c r="F1654" s="4" t="s">
+        <v>6446</v>
+      </c>
+      <c r="G1654" s="4" t="s">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1655" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1559" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1559" s="4" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D1559" s="4" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E1559" s="4" t="s">
-        <v>6083</v>
-      </c>
-      <c r="F1559" s="4" t="s">
-        <v>6083</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1560" s="4" t="s">
+      <c r="B1655" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1655" s="4" t="s">
+        <v>6448</v>
+      </c>
+      <c r="D1655" s="4" t="s">
+        <v>6449</v>
+      </c>
+      <c r="E1655" s="4" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F1655" s="4" t="s">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1656" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1560" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1560" s="4" t="s">
+      <c r="B1656" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1656" s="4" t="s">
         <v>1876</v>
       </c>
-      <c r="D1560" s="4" t="s">
+      <c r="D1656" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="E1560" s="4" t="s">
+      <c r="E1656" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="F1560" s="4" t="s">
+      <c r="F1656" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="G1560" s="4" t="s">
+      <c r="G1656" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1561" s="4" t="s">
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1657" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1561" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1561" s="4" t="s">
+      <c r="B1657" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1657" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="D1561" s="4" t="s">
+      <c r="D1657" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="E1561" s="4" t="s">
+      <c r="E1657" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="F1561" s="4" t="s">
+      <c r="F1657" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="G1561" s="4" t="s">
+      <c r="G1657" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="1562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1562" s="4" t="s">
+    <row r="1658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1658" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="B1562" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1562" s="4" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D1562" s="4" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E1562" s="4" t="s">
-        <v>6086</v>
-      </c>
-      <c r="F1562" s="4" t="s">
-        <v>6086</v>
-      </c>
-      <c r="G1562" s="4" t="s">
-        <v>6087</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1563" s="4" t="s">
+      <c r="B1658" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1658" s="4" t="s">
+        <v>6451</v>
+      </c>
+      <c r="D1658" s="4" t="s">
+        <v>6452</v>
+      </c>
+      <c r="E1658" s="4" t="s">
+        <v>6453</v>
+      </c>
+      <c r="F1658" s="4" t="s">
+        <v>6453</v>
+      </c>
+      <c r="G1658" s="4" t="s">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1659" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1563" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1563" s="4" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D1563" s="4" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E1563" s="4" t="s">
-        <v>6090</v>
-      </c>
-      <c r="F1563" s="4" t="s">
-        <v>6090</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1564" s="4" t="s">
+      <c r="B1659" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1659" s="4" t="s">
+        <v>6455</v>
+      </c>
+      <c r="D1659" s="4" t="s">
+        <v>6456</v>
+      </c>
+      <c r="E1659" s="4" t="s">
+        <v>6457</v>
+      </c>
+      <c r="F1659" s="4" t="s">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1660" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1564" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1564" s="4" t="s">
+      <c r="B1660" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1660" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="D1564" s="4" t="s">
+      <c r="D1660" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="E1564" s="4" t="s">
+      <c r="E1660" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="F1564" s="4" t="s">
+      <c r="F1660" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="G1564" s="4" t="s">
+      <c r="G1660" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1565" s="4" t="s">
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1661" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1565" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1565" s="4" t="s">
+      <c r="B1661" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1661" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="D1565" s="4" t="s">
+      <c r="D1661" s="4" t="s">
         <v>2244</v>
       </c>
-      <c r="E1565" s="4" t="s">
+      <c r="E1661" s="4" t="s">
         <v>2245</v>
       </c>
-      <c r="F1565" s="4" t="s">
+      <c r="F1661" s="4" t="s">
         <v>2245</v>
       </c>
-      <c r="G1565" s="4" t="s">
+      <c r="G1661" s="4" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="1566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1566" s="4" t="s">
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1662" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="B1566" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1566" s="4" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D1566" s="4" t="s">
+      <c r="B1662" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1662" s="4" t="s">
+        <v>6458</v>
+      </c>
+      <c r="D1662" s="4" t="s">
+        <v>6459</v>
+      </c>
+      <c r="E1662" s="4" t="s">
+        <v>6460</v>
+      </c>
+      <c r="F1662" s="4" t="s">
+        <v>6460</v>
+      </c>
+      <c r="G1662" s="4" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1663" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1663" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1663" s="4" t="s">
+        <v>6462</v>
+      </c>
+      <c r="D1663" s="4" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E1663" s="4" t="s">
+        <v>6464</v>
+      </c>
+      <c r="F1663" s="4" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1664" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1664" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1664" s="4" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D1664" s="4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E1664" s="4" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F1664" s="4" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G1664" s="4" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1665" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1665" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1665" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D1665" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E1665" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F1665" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G1665" s="4" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1666" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1666" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1666" s="4" t="s">
+        <v>6465</v>
+      </c>
+      <c r="D1666" s="4" t="s">
+        <v>6466</v>
+      </c>
+      <c r="E1666" s="4" t="s">
+        <v>6467</v>
+      </c>
+      <c r="F1666" s="4" t="s">
+        <v>6467</v>
+      </c>
+      <c r="G1666" s="4" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1667" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1667" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1667" s="4" t="s">
+        <v>6469</v>
+      </c>
+      <c r="D1667" s="4" t="s">
+        <v>6470</v>
+      </c>
+      <c r="E1667" s="4" t="s">
+        <v>6471</v>
+      </c>
+      <c r="F1667" s="4" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1668" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1668" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1668" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1668" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E1668" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F1668" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G1668" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1669" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1669" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1669" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1669" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E1669" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F1669" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G1669" s="4" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1670" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1670" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1670" s="4" t="s">
+        <v>6472</v>
+      </c>
+      <c r="D1670" s="4" t="s">
+        <v>6473</v>
+      </c>
+      <c r="E1670" s="4" t="s">
+        <v>6474</v>
+      </c>
+      <c r="F1670" s="4" t="s">
+        <v>6474</v>
+      </c>
+      <c r="G1670" s="4" t="s">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1671" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1671" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1671" s="4" t="s">
+        <v>6476</v>
+      </c>
+      <c r="D1671" s="4" t="s">
+        <v>6477</v>
+      </c>
+      <c r="E1671" s="4" t="s">
+        <v>6478</v>
+      </c>
+      <c r="F1671" s="4" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1672" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1672" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1672" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D1672" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1672" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F1672" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G1672" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1673" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1673" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1673" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1673" s="4" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E1673" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F1673" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="G1673" s="4" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1674" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1674" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1674" s="4" t="s">
+        <v>6479</v>
+      </c>
+      <c r="D1674" s="4" t="s">
+        <v>6480</v>
+      </c>
+      <c r="E1674" s="4" t="s">
+        <v>6481</v>
+      </c>
+      <c r="F1674" s="4" t="s">
+        <v>6481</v>
+      </c>
+      <c r="G1674" s="4" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1675" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1675" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1675" s="4" t="s">
+        <v>6483</v>
+      </c>
+      <c r="D1675" s="4" t="s">
+        <v>6484</v>
+      </c>
+      <c r="E1675" s="4" t="s">
+        <v>6485</v>
+      </c>
+      <c r="F1675" s="4" t="s">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1676" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1676" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1676" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D1676" s="4" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E1676" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="F1676" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="G1676" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1677" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1677" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1677" s="4" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1677" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="E1677" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="F1677" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="G1677" s="4" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1678" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1678" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1678" s="4" t="s">
+        <v>6486</v>
+      </c>
+      <c r="D1678" s="4" t="s">
+        <v>6487</v>
+      </c>
+      <c r="E1678" s="4" t="s">
+        <v>6488</v>
+      </c>
+      <c r="F1678" s="4" t="s">
+        <v>6488</v>
+      </c>
+      <c r="G1678" s="4" t="s">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1679" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1679" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1679" s="4" t="s">
+        <v>6490</v>
+      </c>
+      <c r="D1679" s="4" t="s">
+        <v>6491</v>
+      </c>
+      <c r="E1679" s="4" t="s">
+        <v>6492</v>
+      </c>
+      <c r="F1679" s="4" t="s">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1680" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1680" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1680" s="4" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D1680" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="E1680" s="4" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F1680" s="4" t="s">
+        <v>4069</v>
+      </c>
+      <c r="G1680" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1681" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1681" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1681" s="4" t="s">
+        <v>4188</v>
+      </c>
+      <c r="D1681" s="4" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E1681" s="4" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F1681" s="4" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G1681" s="4" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1682" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1682" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1682" s="4" t="s">
+        <v>6493</v>
+      </c>
+      <c r="D1682" s="4" t="s">
+        <v>6494</v>
+      </c>
+      <c r="E1682" s="4" t="s">
+        <v>6495</v>
+      </c>
+      <c r="F1682" s="4" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G1682" s="4" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1683" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1683" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1683" s="4" t="s">
+        <v>6497</v>
+      </c>
+      <c r="D1683" s="4" t="s">
+        <v>6498</v>
+      </c>
+      <c r="E1683" s="4" t="s">
+        <v>6499</v>
+      </c>
+      <c r="F1683" s="4" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1684" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1684" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1684" s="4" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D1684" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E1684" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="F1684" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G1684" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1685" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1685" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1685" s="4" t="s">
+        <v>4557</v>
+      </c>
+      <c r="D1685" s="4" t="s">
+        <v>4469</v>
+      </c>
+      <c r="E1685" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F1685" s="4" t="s">
+        <v>4470</v>
+      </c>
+      <c r="G1685" s="4" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1686" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1686" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1686" s="4" t="s">
+        <v>6500</v>
+      </c>
+      <c r="D1686" s="4" t="s">
+        <v>6501</v>
+      </c>
+      <c r="E1686" s="4" t="s">
+        <v>6502</v>
+      </c>
+      <c r="F1686" s="4" t="s">
+        <v>6502</v>
+      </c>
+      <c r="G1686" s="4" t="s">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1687" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B1687" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1687" s="4" t="s">
+        <v>6504</v>
+      </c>
+      <c r="D1687" s="4" t="s">
+        <v>6505</v>
+      </c>
+      <c r="E1687" s="4" t="s">
+        <v>6506</v>
+      </c>
+      <c r="F1687" s="4" t="s">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1688" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B1688" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1688" s="4" t="s">
+        <v>4681</v>
+      </c>
+      <c r="D1688" s="4" t="s">
+        <v>4773</v>
+      </c>
+      <c r="E1688" s="4" t="s">
+        <v>4683</v>
+      </c>
+      <c r="F1688" s="4" t="s">
+        <v>4683</v>
+      </c>
+      <c r="G1688" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1689" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B1689" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1689" s="4" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D1689" s="4" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E1689" s="4" t="s">
+        <v>4845</v>
+      </c>
+      <c r="F1689" s="4" t="s">
+        <v>4845</v>
+      </c>
+      <c r="G1689" s="4" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1690" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B1690" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1690" s="4" t="s">
+        <v>6507</v>
+      </c>
+      <c r="D1690" s="4" t="s">
+        <v>6508</v>
+      </c>
+      <c r="E1690" s="4" t="s">
+        <v>6509</v>
+      </c>
+      <c r="F1690" s="4" t="s">
+        <v>6509</v>
+      </c>
+      <c r="G1690" s="4" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1691" s="4" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B1691" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1691" s="4" t="s">
+        <v>6511</v>
+      </c>
+      <c r="D1691" s="4" t="s">
+        <v>6512</v>
+      </c>
+      <c r="E1691" s="4" t="s">
+        <v>6513</v>
+      </c>
+      <c r="F1691" s="4" t="s">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1692" s="4" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B1692" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1692" s="4" t="s">
+        <v>5048</v>
+      </c>
+      <c r="D1692" s="4" t="s">
+        <v>5140</v>
+      </c>
+      <c r="E1692" s="4" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F1692" s="4" t="s">
+        <v>5050</v>
+      </c>
+      <c r="G1692" s="4" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1693" s="4" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B1693" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1693" s="4" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D1693" s="4" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E1693" s="4" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F1693" s="4" t="s">
+        <v>5296</v>
+      </c>
+      <c r="G1693" s="4" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1694" s="4" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B1694" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1694" s="4" t="s">
+        <v>6514</v>
+      </c>
+      <c r="D1694" s="4" t="s">
+        <v>6515</v>
+      </c>
+      <c r="E1694" s="4" t="s">
+        <v>6516</v>
+      </c>
+      <c r="F1694" s="4" t="s">
+        <v>6516</v>
+      </c>
+      <c r="G1694" s="4" t="s">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1695" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1695" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1695" s="4" t="s">
+        <v>6518</v>
+      </c>
+      <c r="D1695" s="4" t="s">
+        <v>6519</v>
+      </c>
+      <c r="E1695" s="4" t="s">
+        <v>6520</v>
+      </c>
+      <c r="F1695" s="4" t="s">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1696" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1696" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1696" s="4" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D1696" s="4" t="s">
+        <v>5346</v>
+      </c>
+      <c r="E1696" s="4" t="s">
+        <v>5420</v>
+      </c>
+      <c r="F1696" s="4" t="s">
+        <v>5420</v>
+      </c>
+      <c r="G1696" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1697" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1697" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1697" s="4" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D1697" s="4" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E1697" s="4" t="s">
+        <v>5587</v>
+      </c>
+      <c r="F1697" s="4" t="s">
+        <v>5587</v>
+      </c>
+      <c r="G1697" s="4" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1698" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1698" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1698" s="4" t="s">
+        <v>6521</v>
+      </c>
+      <c r="D1698" s="4" t="s">
+        <v>6522</v>
+      </c>
+      <c r="E1698" s="4" t="s">
+        <v>6523</v>
+      </c>
+      <c r="F1698" s="4" t="s">
+        <v>6523</v>
+      </c>
+      <c r="G1698" s="4" t="s">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1699" s="4" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B1699" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1699" s="4" t="s">
+        <v>6525</v>
+      </c>
+      <c r="D1699" s="4" t="s">
+        <v>6526</v>
+      </c>
+      <c r="E1699" s="4" t="s">
+        <v>6527</v>
+      </c>
+      <c r="F1699" s="4" t="s">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1700" s="4" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B1700" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1700" s="4" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D1700" s="4" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E1700" s="4" t="s">
+        <v>5787</v>
+      </c>
+      <c r="F1700" s="4" t="s">
+        <v>5787</v>
+      </c>
+      <c r="G1700" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1701" s="4" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B1701" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1701" s="4" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D1701" s="4" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E1701" s="4" t="s">
+        <v>5958</v>
+      </c>
+      <c r="F1701" s="4" t="s">
+        <v>5958</v>
+      </c>
+      <c r="G1701" s="4" t="s">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1702" s="4" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B1702" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1702" s="4" t="s">
+        <v>6528</v>
+      </c>
+      <c r="D1702" s="4" t="s">
+        <v>6529</v>
+      </c>
+      <c r="E1702" s="4" t="s">
+        <v>6530</v>
+      </c>
+      <c r="F1702" s="4" t="s">
+        <v>6530</v>
+      </c>
+      <c r="G1702" s="4" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1703" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1703" s="4" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1703" s="4" t="s">
+        <v>6532</v>
+      </c>
+      <c r="D1703" s="4" t="s">
+        <v>6533</v>
+      </c>
+      <c r="E1703" s="4" t="s">
+        <v>6534</v>
+      </c>
+      <c r="F1703" s="4" t="s">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1704" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1704" s="4" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C1704" s="4" t="s">
+        <v>6324</v>
+      </c>
+      <c r="D1704" s="4" t="s">
         <v>6092</v>
       </c>
-      <c r="E1566" s="4" t="s">
-        <v>6093</v>
-      </c>
-      <c r="F1566" s="4" t="s">
-        <v>6093</v>
-      </c>
-      <c r="G1566" s="4" t="s">
-        <v>6094</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1567" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B1567" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1567" s="4" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D1567" s="4" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E1567" s="4" t="s">
-        <v>6097</v>
-      </c>
-      <c r="F1567" s="4" t="s">
-        <v>6097</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1568" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B1568" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1568" s="4" t="s">
-        <v>2455</v>
-      </c>
-      <c r="D1568" s="4" t="s">
-        <v>2543</v>
-      </c>
-      <c r="E1568" s="4" t="s">
-        <v>2488</v>
-      </c>
-      <c r="F1568" s="4" t="s">
-        <v>2488</v>
-      </c>
-      <c r="G1568" s="4" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1569" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B1569" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1569" s="4" t="s">
-        <v>2700</v>
-      </c>
-      <c r="D1569" s="4" t="s">
-        <v>2618</v>
-      </c>
-      <c r="E1569" s="4" t="s">
-        <v>2635</v>
-      </c>
-      <c r="F1569" s="4" t="s">
-        <v>2635</v>
-      </c>
-      <c r="G1569" s="4" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1570" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B1570" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1570" s="4" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D1570" s="4" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E1570" s="4" t="s">
-        <v>6100</v>
-      </c>
-      <c r="F1570" s="4" t="s">
-        <v>6100</v>
-      </c>
-      <c r="G1570" s="4" t="s">
-        <v>6101</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1571" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B1571" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1571" s="4" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D1571" s="4" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E1571" s="4" t="s">
-        <v>6104</v>
-      </c>
-      <c r="F1571" s="4" t="s">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1572" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B1572" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1572" s="4" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D1572" s="4" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E1572" s="4" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F1572" s="4" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G1572" s="4" t="s">
+      <c r="E1704" s="4" t="s">
+        <v>6158</v>
+      </c>
+      <c r="F1704" s="4" t="s">
+        <v>6158</v>
+      </c>
+      <c r="G1704" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1573" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B1573" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1573" s="4" t="s">
-        <v>2713</v>
-      </c>
-      <c r="D1573" s="4" t="s">
-        <v>2996</v>
-      </c>
-      <c r="E1573" s="4" t="s">
-        <v>2997</v>
-      </c>
-      <c r="F1573" s="4" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G1573" s="4" t="s">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1574" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B1574" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1574" s="4" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D1574" s="4" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E1574" s="4" t="s">
-        <v>6107</v>
-      </c>
-      <c r="F1574" s="4" t="s">
-        <v>6107</v>
-      </c>
-      <c r="G1574" s="4" t="s">
-        <v>6108</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1575" s="4" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B1575" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1575" s="4" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D1575" s="4" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E1575" s="4" t="s">
-        <v>6111</v>
-      </c>
-      <c r="F1575" s="4" t="s">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1576" s="4" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B1576" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1576" s="4" t="s">
-        <v>3361</v>
-      </c>
-      <c r="D1576" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="E1576" s="4" t="s">
-        <v>3226</v>
-      </c>
-      <c r="F1576" s="4" t="s">
-        <v>3226</v>
-      </c>
-      <c r="G1576" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1577" s="4" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B1577" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1577" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D1577" s="4" t="s">
-        <v>3362</v>
-      </c>
-      <c r="E1577" s="4" t="s">
-        <v>3363</v>
-      </c>
-      <c r="F1577" s="4" t="s">
-        <v>3363</v>
-      </c>
-      <c r="G1577" s="4" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1578" s="4" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B1578" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1578" s="4" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D1578" s="4" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E1578" s="4" t="s">
-        <v>6114</v>
-      </c>
-      <c r="F1578" s="4" t="s">
-        <v>6114</v>
-      </c>
-      <c r="G1578" s="4" t="s">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1579" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1579" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1579" s="4" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D1579" s="4" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E1579" s="4" t="s">
-        <v>6118</v>
-      </c>
-      <c r="F1579" s="4" t="s">
-        <v>6118</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1580" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1580" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1580" s="4" t="s">
-        <v>3730</v>
-      </c>
-      <c r="D1580" s="4" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E1580" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="F1580" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="G1580" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1581" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1581" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1581" s="4" t="s">
-        <v>3814</v>
-      </c>
-      <c r="D1581" s="4" t="s">
-        <v>3731</v>
-      </c>
-      <c r="E1581" s="4" t="s">
-        <v>3732</v>
-      </c>
-      <c r="F1581" s="4" t="s">
-        <v>3732</v>
-      </c>
-      <c r="G1581" s="4" t="s">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1582" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1582" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1582" s="4" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D1582" s="4" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E1582" s="4" t="s">
-        <v>6121</v>
-      </c>
-      <c r="F1582" s="4" t="s">
-        <v>6121</v>
-      </c>
-      <c r="G1582" s="4" t="s">
-        <v>6122</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1583" s="4" t="s">
-        <v>3818</v>
-      </c>
-      <c r="B1583" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1583" s="4" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D1583" s="4" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E1583" s="4" t="s">
-        <v>6125</v>
-      </c>
-      <c r="F1583" s="4" t="s">
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1584" s="4" t="s">
-        <v>3818</v>
-      </c>
-      <c r="B1584" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1584" s="4" t="s">
-        <v>4104</v>
-      </c>
-      <c r="D1584" s="4" t="s">
-        <v>4028</v>
-      </c>
-      <c r="E1584" s="4" t="s">
-        <v>4069</v>
-      </c>
-      <c r="F1584" s="4" t="s">
-        <v>4069</v>
-      </c>
-      <c r="G1584" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1585" s="4" t="s">
-        <v>3818</v>
-      </c>
-      <c r="B1585" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1585" s="4" t="s">
-        <v>4188</v>
-      </c>
-      <c r="D1585" s="4" t="s">
-        <v>4102</v>
-      </c>
-      <c r="E1585" s="4" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F1585" s="4" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G1585" s="4" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1586" s="4" t="s">
-        <v>3818</v>
-      </c>
-      <c r="B1586" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1586" s="4" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D1586" s="4" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E1586" s="4" t="s">
-        <v>6128</v>
-      </c>
-      <c r="F1586" s="4" t="s">
-        <v>6128</v>
-      </c>
-      <c r="G1586" s="4" t="s">
-        <v>6129</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1587" s="4" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B1587" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1587" s="4" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D1587" s="4" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E1587" s="4" t="s">
-        <v>6132</v>
-      </c>
-      <c r="F1587" s="4" t="s">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1588" s="4" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B1588" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1588" s="4" t="s">
-        <v>4471</v>
-      </c>
-      <c r="D1588" s="4" t="s">
-        <v>4399</v>
-      </c>
-      <c r="E1588" s="4" t="s">
-        <v>4310</v>
-      </c>
-      <c r="F1588" s="4" t="s">
-        <v>4310</v>
-      </c>
-      <c r="G1588" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1589" s="4" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B1589" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1589" s="4" t="s">
-        <v>4557</v>
-      </c>
-      <c r="D1589" s="4" t="s">
-        <v>4469</v>
-      </c>
-      <c r="E1589" s="4" t="s">
-        <v>4470</v>
-      </c>
-      <c r="F1589" s="4" t="s">
-        <v>4470</v>
-      </c>
-      <c r="G1589" s="4" t="s">
-        <v>4401</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1590" s="4" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B1590" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1590" s="4" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D1590" s="4" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E1590" s="4" t="s">
-        <v>6135</v>
-      </c>
-      <c r="F1590" s="4" t="s">
-        <v>6135</v>
-      </c>
-      <c r="G1590" s="4" t="s">
-        <v>6136</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1591" s="4" t="s">
-        <v>4561</v>
-      </c>
-      <c r="B1591" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1591" s="4" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D1591" s="4" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E1591" s="4" t="s">
-        <v>6139</v>
-      </c>
-      <c r="F1591" s="4" t="s">
-        <v>6139</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1592" s="4" t="s">
-        <v>4561</v>
-      </c>
-      <c r="B1592" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1592" s="4" t="s">
-        <v>4681</v>
-      </c>
-      <c r="D1592" s="4" t="s">
-        <v>4773</v>
-      </c>
-      <c r="E1592" s="4" t="s">
-        <v>4683</v>
-      </c>
-      <c r="F1592" s="4" t="s">
-        <v>4683</v>
-      </c>
-      <c r="G1592" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1593" s="4" t="s">
-        <v>4561</v>
-      </c>
-      <c r="B1593" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1593" s="4" t="s">
-        <v>4929</v>
-      </c>
-      <c r="D1593" s="4" t="s">
-        <v>4844</v>
-      </c>
-      <c r="E1593" s="4" t="s">
-        <v>4845</v>
-      </c>
-      <c r="F1593" s="4" t="s">
-        <v>4845</v>
-      </c>
-      <c r="G1593" s="4" t="s">
-        <v>4775</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1594" s="4" t="s">
-        <v>4561</v>
-      </c>
-      <c r="B1594" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1594" s="4" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1594" s="4" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E1594" s="4" t="s">
-        <v>6142</v>
-      </c>
-      <c r="F1594" s="4" t="s">
-        <v>6142</v>
-      </c>
-      <c r="G1594" s="4" t="s">
-        <v>6143</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1595" s="4" t="s">
-        <v>4933</v>
-      </c>
-      <c r="B1595" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1595" s="4" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D1595" s="4" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E1595" s="4" t="s">
-        <v>6146</v>
-      </c>
-      <c r="F1595" s="4" t="s">
-        <v>6146</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1596" s="4" t="s">
-        <v>4933</v>
-      </c>
-      <c r="B1596" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1596" s="4" t="s">
-        <v>5048</v>
-      </c>
-      <c r="D1596" s="4" t="s">
-        <v>5140</v>
-      </c>
-      <c r="E1596" s="4" t="s">
-        <v>5050</v>
-      </c>
-      <c r="F1596" s="4" t="s">
-        <v>5050</v>
-      </c>
-      <c r="G1596" s="4" t="s">
-        <v>5217</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1597" s="4" t="s">
-        <v>4933</v>
-      </c>
-      <c r="B1597" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1597" s="4" t="s">
-        <v>5298</v>
-      </c>
-      <c r="D1597" s="4" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E1597" s="4" t="s">
-        <v>5296</v>
-      </c>
-      <c r="F1597" s="4" t="s">
-        <v>5296</v>
-      </c>
-      <c r="G1597" s="4" t="s">
-        <v>5154</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1598" s="4" t="s">
-        <v>4933</v>
-      </c>
-      <c r="B1598" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1598" s="4" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D1598" s="4" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E1598" s="4" t="s">
-        <v>6149</v>
-      </c>
-      <c r="F1598" s="4" t="s">
-        <v>6149</v>
-      </c>
-      <c r="G1598" s="4" t="s">
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1599" s="4" t="s">
-        <v>5308</v>
-      </c>
-      <c r="B1599" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1599" s="4" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D1599" s="4" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E1599" s="4" t="s">
-        <v>6153</v>
-      </c>
-      <c r="F1599" s="4" t="s">
-        <v>6153</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1600" s="4" t="s">
-        <v>5308</v>
-      </c>
-      <c r="B1600" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1600" s="4" t="s">
-        <v>5586</v>
-      </c>
-      <c r="D1600" s="4" t="s">
-        <v>5346</v>
-      </c>
-      <c r="E1600" s="4" t="s">
-        <v>5420</v>
-      </c>
-      <c r="F1600" s="4" t="s">
-        <v>5420</v>
-      </c>
-      <c r="G1600" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1601" s="4" t="s">
-        <v>5308</v>
-      </c>
-      <c r="B1601" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1601" s="4" t="s">
-        <v>5661</v>
-      </c>
-      <c r="D1601" s="4" t="s">
-        <v>4166</v>
-      </c>
-      <c r="E1601" s="4" t="s">
-        <v>5587</v>
-      </c>
-      <c r="F1601" s="4" t="s">
-        <v>5587</v>
-      </c>
-      <c r="G1601" s="4" t="s">
-        <v>5515</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1602" s="4" t="s">
-        <v>5308</v>
-      </c>
-      <c r="B1602" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1602" s="4" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D1602" s="4" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E1602" s="4" t="s">
-        <v>6156</v>
-      </c>
-      <c r="F1602" s="4" t="s">
-        <v>6156</v>
-      </c>
-      <c r="G1602" s="4" t="s">
-        <v>6157</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1603" s="4" t="s">
-        <v>5673</v>
-      </c>
-      <c r="B1603" s="4" t="s">
-        <v>6049</v>
-      </c>
-      <c r="C1603" s="4" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D1603" s="4" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E1603" s="4" t="s">
-        <v>6160</v>
-      </c>
-      <c r="F1603" s="4" t="s">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1604" s="4" t="s">
-        <v>5673</v>
-      </c>
-      <c r="B1604" s="4" t="s">
-        <v>6053</v>
-      </c>
-      <c r="C1604" s="4" t="s">
-        <v>5956</v>
-      </c>
-      <c r="D1604" s="4" t="s">
-        <v>5730</v>
-      </c>
-      <c r="E1604" s="4" t="s">
-        <v>5787</v>
-      </c>
-      <c r="F1604" s="4" t="s">
-        <v>5787</v>
-      </c>
-      <c r="G1604" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1605" s="4" t="s">
-        <v>5673</v>
-      </c>
-      <c r="B1605" s="4" t="s">
-        <v>6054</v>
-      </c>
-      <c r="C1605" s="4" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D1605" s="4" t="s">
-        <v>5957</v>
-      </c>
-      <c r="E1605" s="4" t="s">
-        <v>5958</v>
-      </c>
-      <c r="F1605" s="4" t="s">
-        <v>5958</v>
-      </c>
-      <c r="G1605" s="4" t="s">
-        <v>5677</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1606" s="4" t="s">
-        <v>5673</v>
-      </c>
-      <c r="B1606" s="4" t="s">
-        <v>6055</v>
-      </c>
-      <c r="C1606" s="4" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D1606" s="4" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E1606" s="4" t="s">
-        <v>6163</v>
-      </c>
-      <c r="F1606" s="4" t="s">
-        <v>6163</v>
-      </c>
-      <c r="G1606" s="4" t="s">
-        <v>6164</v>
+    <row r="1705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1705" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1705" s="4" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1705" s="4" t="s">
+        <v>6407</v>
+      </c>
+      <c r="D1705" s="4" t="s">
+        <v>6322</v>
+      </c>
+      <c r="E1705" s="4" t="s">
+        <v>6323</v>
+      </c>
+      <c r="F1705" s="4" t="s">
+        <v>6323</v>
+      </c>
+      <c r="G1705" s="4" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1706" s="4" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B1706" s="4" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1706" s="4" t="s">
+        <v>6535</v>
+      </c>
+      <c r="D1706" s="4" t="s">
+        <v>6536</v>
+      </c>
+      <c r="E1706" s="4" t="s">
+        <v>6537</v>
+      </c>
+      <c r="F1706" s="4" t="s">
+        <v>6537</v>
+      </c>
+      <c r="G1706" s="4" t="s">
+        <v>6538</v>
       </c>
     </row>
   </sheetData>
